--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8A438B-F93E-4F93-B8A2-D8DF3BA8CEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95686D0E-FC9C-443C-B817-A52829595D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -10234,9 +10234,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K685" sqref="K685"/>
+      <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>510</v>
       </c>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>729</v>
       </c>
@@ -19308,7 +19308,7 @@
       </c>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>864</v>
       </c>
@@ -21136,7 +21136,7 @@
       </c>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>929</v>
       </c>
@@ -21265,7 +21265,7 @@
       </c>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>934</v>
       </c>
@@ -23019,7 +23019,7 @@
       </c>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>1000</v>
       </c>
@@ -23326,7 +23326,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1009</v>
       </c>
@@ -23674,7 +23674,7 @@
       </c>
       <c r="O308" s="18"/>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1026</v>
       </c>
@@ -24157,7 +24157,7 @@
       </c>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>1038</v>
       </c>
@@ -24415,7 +24415,7 @@
       </c>
       <c r="O325" s="18"/>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>1044</v>
       </c>
@@ -24677,7 +24677,7 @@
       </c>
       <c r="O331" s="18"/>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1052</v>
       </c>
@@ -25504,7 +25504,7 @@
       </c>
       <c r="O350" s="18"/>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1077</v>
       </c>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="O367" s="18"/>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>1746</v>
       </c>
@@ -26646,7 +26646,7 @@
       </c>
       <c r="O376" s="18"/>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>1758</v>
       </c>
@@ -27039,7 +27039,7 @@
       </c>
       <c r="O385" s="18"/>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>1914</v>
       </c>
@@ -30918,7 +30918,7 @@
       </c>
       <c r="O474" s="18"/>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>2090</v>
       </c>
@@ -31866,7 +31866,7 @@
       </c>
       <c r="O496" s="18"/>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" s="18" t="s">
         <v>2122</v>
       </c>
@@ -32341,7 +32341,7 @@
       </c>
       <c r="O507" s="18"/>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A508" s="18" t="s">
         <v>2140</v>
       </c>
@@ -32689,7 +32689,7 @@
       </c>
       <c r="O515" s="18"/>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A516" s="18" t="s">
         <v>2153</v>
       </c>
@@ -35723,7 +35723,7 @@
       </c>
       <c r="O585" s="18"/>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A586" s="18" t="s">
         <v>2248</v>
       </c>
@@ -40683,10 +40683,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="4">
+    <filterColumn colId="13">
       <filters>
-        <filter val="Mumak War Leader"/>
-        <filter val="War Mumak of Harad"/>
+        <filter val="[['Bain, Son of Bard', '0:1:2:1'], ['Sigrid', '0:1:2:1'], ['Tilda', '0:1:2:1']]"/>
+        <filter val="[['Corsair Ballista - Siege Veteran', '1:1:1:1']]"/>
+        <filter val="[['Eowyn', '2:2:3:2'], ['Meriadoc Brandybuck', '1:1:2:2']]"/>
+        <filter val="[['Gandalf the White', '3:6:3:3']]"/>
+        <filter val="[['Gondor Battlecry Trebuchet - Siege Veteran', '1:1:1:1']]"/>
+        <filter val="[['Haradrim Commander', '2:1:1:2'], ['War Mumak of Harad', '0:0:0:10']]"/>
+        <filter val="[['Iron Hills Ballista - Siege Veteran', '1:1:1:1']]"/>
+        <filter val="[['Isengard Assault Ballista - Siege Veteran', '1:1:1:1']]"/>
+        <filter val="[['Mumak War Leader', '3:2:2:3'], ['Royal War Mumak', '0:0:0:10']]"/>
+        <filter val="[['Shank', '2:3:1:2'], ['Wrot', '1:1:1:2']]"/>
+        <filter val="[['Treebeard', '3:4:3:4']]"/>
+        <filter val="[['Troll Brute', '0:0:0:4'],['Orc Commander', '1:1:1:2']]"/>
+        <filter val="[['Windlance - Siege Veteran', '1:1:1:1']]"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -40703,12 +40714,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1582"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C850" sqref="C850"/>
+      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C853" sqref="C853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40754,7 +40764,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
@@ -40777,7 +40787,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -40800,7 +40810,7 @@
         <v>Snowmane</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -40817,7 +40827,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -40834,7 +40844,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -40857,7 +40867,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>31</v>
       </c>
@@ -40874,7 +40884,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>32</v>
       </c>
@@ -40897,7 +40907,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>33</v>
       </c>
@@ -40920,7 +40930,7 @@
         <v>Firefoot</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>34</v>
       </c>
@@ -40937,7 +40947,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -40956,7 +40966,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>36</v>
       </c>
@@ -40973,7 +40983,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
@@ -40996,7 +41006,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>38</v>
       </c>
@@ -41019,7 +41029,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
@@ -41036,7 +41046,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
@@ -41053,7 +41063,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
@@ -41076,7 +41086,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>42</v>
       </c>
@@ -41093,7 +41103,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
@@ -41110,7 +41120,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>44</v>
       </c>
@@ -41129,7 +41139,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>46</v>
       </c>
@@ -41148,7 +41158,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>47</v>
       </c>
@@ -41165,7 +41175,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
@@ -41184,7 +41194,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
@@ -41201,7 +41211,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>50</v>
       </c>
@@ -41220,7 +41230,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>51</v>
       </c>
@@ -41237,7 +41247,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>52</v>
       </c>
@@ -41320,7 +41330,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>267</v>
       </c>
@@ -41343,7 +41353,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>268</v>
       </c>
@@ -41360,7 +41370,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>269</v>
       </c>
@@ -41379,7 +41389,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>270</v>
       </c>
@@ -41396,7 +41406,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>271</v>
       </c>
@@ -41413,7 +41423,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>272</v>
       </c>
@@ -41430,7 +41440,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>273</v>
       </c>
@@ -41447,7 +41457,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>274</v>
       </c>
@@ -41466,7 +41476,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>430</v>
       </c>
@@ -41485,7 +41495,7 @@
       </c>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>431</v>
       </c>
@@ -41510,7 +41520,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>432</v>
       </c>
@@ -41532,7 +41542,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>433</v>
       </c>
@@ -41549,7 +41559,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>434</v>
       </c>
@@ -41566,7 +41576,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>435</v>
       </c>
@@ -41585,7 +41595,7 @@
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>436</v>
       </c>
@@ -41610,7 +41620,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>437</v>
       </c>
@@ -41632,7 +41642,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>438</v>
       </c>
@@ -41649,7 +41659,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>439</v>
       </c>
@@ -41672,7 +41682,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>440</v>
       </c>
@@ -41695,7 +41705,7 @@
         <v>Asfaloth</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>441</v>
       </c>
@@ -41714,7 +41724,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>442</v>
       </c>
@@ -41736,7 +41746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>443</v>
       </c>
@@ -41753,7 +41763,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>444</v>
       </c>
@@ -41770,7 +41780,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>445</v>
       </c>
@@ -41789,7 +41799,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>446</v>
       </c>
@@ -41806,7 +41816,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>447</v>
       </c>
@@ -41823,7 +41833,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>448</v>
       </c>
@@ -41840,7 +41850,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>449</v>
       </c>
@@ -41857,7 +41867,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>450</v>
       </c>
@@ -41874,7 +41884,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>451</v>
       </c>
@@ -41891,7 +41901,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>452</v>
       </c>
@@ -41908,7 +41918,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>453</v>
       </c>
@@ -41927,7 +41937,7 @@
       </c>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>454</v>
       </c>
@@ -41944,7 +41954,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>455</v>
       </c>
@@ -41961,7 +41971,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>456</v>
       </c>
@@ -41978,7 +41988,7 @@
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>457</v>
       </c>
@@ -41995,7 +42005,7 @@
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>458</v>
       </c>
@@ -42014,7 +42024,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>459</v>
       </c>
@@ -42031,7 +42041,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>460</v>
       </c>
@@ -42050,7 +42060,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>461</v>
       </c>
@@ -42067,7 +42077,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>462</v>
       </c>
@@ -42105,7 +42115,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>464</v>
       </c>
@@ -42124,7 +42134,7 @@
       </c>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
         <v>465</v>
       </c>
@@ -42141,7 +42151,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>466</v>
       </c>
@@ -42158,7 +42168,7 @@
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>467</v>
       </c>
@@ -42175,7 +42185,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>468</v>
       </c>
@@ -42194,7 +42204,7 @@
       </c>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>469</v>
       </c>
@@ -42215,7 +42225,7 @@
       </c>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>470</v>
       </c>
@@ -42232,7 +42242,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>471</v>
       </c>
@@ -42251,7 +42261,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>472</v>
       </c>
@@ -42268,7 +42278,7 @@
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>473</v>
       </c>
@@ -42287,7 +42297,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>474</v>
       </c>
@@ -42304,7 +42314,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>475</v>
       </c>
@@ -42321,7 +42331,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>476</v>
       </c>
@@ -42338,7 +42348,7 @@
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>477</v>
       </c>
@@ -42357,7 +42367,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>478</v>
       </c>
@@ -42374,7 +42384,7 @@
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>479</v>
       </c>
@@ -42391,7 +42401,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>480</v>
       </c>
@@ -42408,7 +42418,7 @@
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>481</v>
       </c>
@@ -42425,7 +42435,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>482</v>
       </c>
@@ -42442,7 +42452,7 @@
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>483</v>
       </c>
@@ -42459,7 +42469,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>484</v>
       </c>
@@ -42476,7 +42486,7 @@
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
         <v>485</v>
       </c>
@@ -42493,7 +42503,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>486</v>
       </c>
@@ -42510,7 +42520,7 @@
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
         <v>487</v>
       </c>
@@ -42529,7 +42539,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
         <v>488</v>
       </c>
@@ -42546,7 +42556,7 @@
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>489</v>
       </c>
@@ -42569,7 +42579,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
         <v>490</v>
       </c>
@@ -42586,7 +42596,7 @@
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
         <v>491</v>
       </c>
@@ -42603,7 +42613,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
         <v>492</v>
       </c>
@@ -42620,7 +42630,7 @@
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
         <v>493</v>
       </c>
@@ -42637,7 +42647,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
         <v>494</v>
       </c>
@@ -42654,7 +42664,7 @@
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="s">
         <v>495</v>
       </c>
@@ -42671,7 +42681,7 @@
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
         <v>496</v>
       </c>
@@ -42688,7 +42698,7 @@
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
         <v>497</v>
       </c>
@@ -42705,7 +42715,7 @@
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
         <v>498</v>
       </c>
@@ -42722,7 +42732,7 @@
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>499</v>
       </c>
@@ -42739,7 +42749,7 @@
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
         <v>520</v>
       </c>
@@ -42762,7 +42772,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="15" t="s">
         <v>521</v>
       </c>
@@ -42785,7 +42795,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
         <v>522</v>
       </c>
@@ -42802,7 +42812,7 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>523</v>
       </c>
@@ -42819,7 +42829,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
         <v>524</v>
       </c>
@@ -42836,7 +42846,7 @@
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="15" t="s">
         <v>525</v>
       </c>
@@ -42855,7 +42865,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="15" t="s">
         <v>526</v>
       </c>
@@ -42872,7 +42882,7 @@
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
         <v>527</v>
       </c>
@@ -42889,7 +42899,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
         <v>528</v>
       </c>
@@ -42906,7 +42916,7 @@
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
         <v>529</v>
       </c>
@@ -42923,7 +42933,7 @@
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
         <v>549</v>
       </c>
@@ -42946,7 +42956,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
         <v>550</v>
       </c>
@@ -42965,7 +42975,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
         <v>551</v>
       </c>
@@ -42982,7 +42992,7 @@
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
         <v>552</v>
       </c>
@@ -42999,7 +43009,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
         <v>553</v>
       </c>
@@ -43018,7 +43028,7 @@
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
         <v>564</v>
       </c>
@@ -43035,7 +43045,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
         <v>565</v>
       </c>
@@ -43052,7 +43062,7 @@
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
         <v>566</v>
       </c>
@@ -43069,7 +43079,7 @@
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
         <v>567</v>
       </c>
@@ -43088,7 +43098,7 @@
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
         <v>598</v>
       </c>
@@ -43107,7 +43117,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
         <v>599</v>
       </c>
@@ -43124,7 +43134,7 @@
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="15" t="s">
         <v>600</v>
       </c>
@@ -43141,7 +43151,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
         <v>601</v>
       </c>
@@ -43158,7 +43168,7 @@
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
         <v>602</v>
       </c>
@@ -43177,7 +43187,7 @@
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
         <v>603</v>
       </c>
@@ -43194,7 +43204,7 @@
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="s">
         <v>604</v>
       </c>
@@ -43213,7 +43223,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="15" t="s">
         <v>605</v>
       </c>
@@ -43232,7 +43242,7 @@
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
         <v>606</v>
       </c>
@@ -43249,7 +43259,7 @@
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
         <v>617</v>
       </c>
@@ -43274,7 +43284,7 @@
         <v>Snowmane</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
         <v>618</v>
       </c>
@@ -43299,7 +43309,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="15" t="s">
         <v>619</v>
       </c>
@@ -43324,7 +43334,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
         <v>620</v>
       </c>
@@ -43341,7 +43351,7 @@
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="15" t="s">
         <v>621</v>
       </c>
@@ -43358,7 +43368,7 @@
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="15" t="s">
         <v>622</v>
       </c>
@@ -43375,7 +43385,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="s">
         <v>623</v>
       </c>
@@ -43438,7 +43448,7 @@
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
         <v>626</v>
       </c>
@@ -43463,7 +43473,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="15" t="s">
         <v>627</v>
       </c>
@@ -43484,7 +43494,7 @@
       </c>
       <c r="G147" s="15"/>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
         <v>628</v>
       </c>
@@ -43501,7 +43511,7 @@
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="15" t="s">
         <v>629</v>
       </c>
@@ -43526,7 +43536,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
         <v>630</v>
       </c>
@@ -43543,7 +43553,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="15" t="s">
         <v>631</v>
       </c>
@@ -43560,7 +43570,7 @@
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="15" t="s">
         <v>654</v>
       </c>
@@ -43583,7 +43593,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="15" t="s">
         <v>655</v>
       </c>
@@ -43605,7 +43615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="15" t="s">
         <v>656</v>
       </c>
@@ -43622,7 +43632,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="15"/>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
         <v>657</v>
       </c>
@@ -43639,7 +43649,7 @@
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
         <v>658</v>
       </c>
@@ -43658,7 +43668,7 @@
       <c r="F156" s="15"/>
       <c r="G156" s="15"/>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="15" t="s">
         <v>659</v>
       </c>
@@ -43675,7 +43685,7 @@
       <c r="F157" s="15"/>
       <c r="G157" s="15"/>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="s">
         <v>660</v>
       </c>
@@ -43692,7 +43702,7 @@
       <c r="F158" s="15"/>
       <c r="G158" s="15"/>
     </row>
-    <row r="159" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A159" s="15" t="s">
         <v>661</v>
       </c>
@@ -43713,7 +43723,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="15" t="s">
         <v>662</v>
       </c>
@@ -43730,7 +43740,7 @@
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="15" t="s">
         <v>663</v>
       </c>
@@ -43747,7 +43757,7 @@
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="15" t="s">
         <v>1125</v>
       </c>
@@ -43770,7 +43780,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="15" t="s">
         <v>1126</v>
       </c>
@@ -43793,7 +43803,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="15" t="s">
         <v>1127</v>
       </c>
@@ -43816,7 +43826,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="15" t="s">
         <v>1128</v>
       </c>
@@ -43839,7 +43849,7 @@
         <v>Ashere</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="s">
         <v>1129</v>
       </c>
@@ -43862,7 +43872,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
         <v>1130</v>
       </c>
@@ -43885,7 +43895,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
         <v>1131</v>
       </c>
@@ -43902,7 +43912,7 @@
       <c r="F168" s="15"/>
       <c r="G168" s="15"/>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
         <v>1132</v>
       </c>
@@ -43919,7 +43929,7 @@
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="15" t="s">
         <v>1133</v>
       </c>
@@ -43942,7 +43952,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
         <v>1134</v>
       </c>
@@ -43961,7 +43971,7 @@
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
         <v>1135</v>
       </c>
@@ -43978,7 +43988,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="15" t="s">
         <v>1136</v>
       </c>
@@ -43997,7 +44007,7 @@
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
         <v>1137</v>
       </c>
@@ -44014,7 +44024,7 @@
       <c r="F174" s="15"/>
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
         <v>1138</v>
       </c>
@@ -44033,7 +44043,7 @@
       <c r="F175" s="15"/>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="15" t="s">
         <v>1139</v>
       </c>
@@ -44050,7 +44060,7 @@
       <c r="F176" s="15"/>
       <c r="G176" s="15"/>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="15" t="s">
         <v>1140</v>
       </c>
@@ -44111,7 +44121,7 @@
       <c r="F179" s="15"/>
       <c r="G179" s="15"/>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
         <v>1143</v>
       </c>
@@ -44136,7 +44146,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
         <v>1144</v>
       </c>
@@ -44155,7 +44165,7 @@
       <c r="F181" s="15"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
         <v>1145</v>
       </c>
@@ -44174,7 +44184,7 @@
       <c r="F182" s="15"/>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
         <v>1146</v>
       </c>
@@ -44191,7 +44201,7 @@
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
         <v>1147</v>
       </c>
@@ -44210,7 +44220,7 @@
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
         <v>1148</v>
       </c>
@@ -44229,7 +44239,7 @@
       </c>
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
         <v>1149</v>
       </c>
@@ -44252,7 +44262,7 @@
         <v>Armoured Fell Beast</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="15" t="s">
         <v>1150</v>
       </c>
@@ -44275,7 +44285,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="s">
         <v>1151</v>
       </c>
@@ -44292,7 +44302,7 @@
       <c r="F188" s="15"/>
       <c r="G188" s="15"/>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
         <v>1152</v>
       </c>
@@ -44315,7 +44325,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
         <v>1153</v>
       </c>
@@ -44332,7 +44342,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
         <v>1154</v>
       </c>
@@ -44349,7 +44359,7 @@
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="s">
         <v>1155</v>
       </c>
@@ -44368,7 +44378,7 @@
       </c>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="15" t="s">
         <v>1156</v>
       </c>
@@ -44391,7 +44401,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="15" t="s">
         <v>1157</v>
       </c>
@@ -44414,7 +44424,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="15" t="s">
         <v>1158</v>
       </c>
@@ -44431,7 +44441,7 @@
       <c r="F195" s="15"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
         <v>1159</v>
       </c>
@@ -44448,7 +44458,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
         <v>1160</v>
       </c>
@@ -44465,7 +44475,7 @@
       <c r="F197" s="15"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
         <v>1161</v>
       </c>
@@ -44482,7 +44492,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
         <v>1162</v>
       </c>
@@ -44501,7 +44511,7 @@
       <c r="F199" s="15"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
         <v>1163</v>
       </c>
@@ -44518,7 +44528,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="15" t="s">
         <v>1164</v>
       </c>
@@ -44535,7 +44545,7 @@
       <c r="F201" s="15"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
         <v>1165</v>
       </c>
@@ -44552,7 +44562,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="15" t="s">
         <v>1166</v>
       </c>
@@ -44569,7 +44579,7 @@
       <c r="F203" s="15"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="s">
         <v>1167</v>
       </c>
@@ -44586,7 +44596,7 @@
       <c r="F204" s="15"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="15" t="s">
         <v>1168</v>
       </c>
@@ -44603,7 +44613,7 @@
       <c r="F205" s="15"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
         <v>1169</v>
       </c>
@@ -44620,7 +44630,7 @@
       <c r="F206" s="15"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="15" t="s">
         <v>1170</v>
       </c>
@@ -44637,7 +44647,7 @@
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
         <v>1171</v>
       </c>
@@ -44656,7 +44666,7 @@
       <c r="F208" s="15"/>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="15" t="s">
         <v>1172</v>
       </c>
@@ -44675,7 +44685,7 @@
       <c r="F209" s="15"/>
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="15" t="s">
         <v>1173</v>
       </c>
@@ -44694,7 +44704,7 @@
       <c r="F210" s="15"/>
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="15" t="s">
         <v>1174</v>
       </c>
@@ -44713,7 +44723,7 @@
       <c r="F211" s="15"/>
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
         <v>1175</v>
       </c>
@@ -44732,7 +44742,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
         <v>1176</v>
       </c>
@@ -44749,7 +44759,7 @@
       <c r="F213" s="15"/>
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="15" t="s">
         <v>1177</v>
       </c>
@@ -44772,7 +44782,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="15" t="s">
         <v>1178</v>
       </c>
@@ -44795,7 +44805,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="15" t="s">
         <v>1179</v>
       </c>
@@ -44812,7 +44822,7 @@
       <c r="F216" s="15"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="15" t="s">
         <v>1180</v>
       </c>
@@ -44829,7 +44839,7 @@
       <c r="F217" s="15"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="15" t="s">
         <v>1181</v>
       </c>
@@ -44846,7 +44856,7 @@
       <c r="F218" s="15"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="15" t="s">
         <v>1182</v>
       </c>
@@ -44865,7 +44875,7 @@
       <c r="F219" s="15"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="s">
         <v>1183</v>
       </c>
@@ -44882,7 +44892,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="15" t="s">
         <v>1184</v>
       </c>
@@ -44899,7 +44909,7 @@
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
         <v>1185</v>
       </c>
@@ -44916,7 +44926,7 @@
       <c r="F222" s="15"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="15" t="s">
         <v>1186</v>
       </c>
@@ -44933,7 +44943,7 @@
       <c r="F223" s="15"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="15" t="s">
         <v>1187</v>
       </c>
@@ -44952,7 +44962,7 @@
       <c r="F224" s="15"/>
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="15" t="s">
         <v>1188</v>
       </c>
@@ -44969,7 +44979,7 @@
       <c r="F225" s="15"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="15" t="s">
         <v>1189</v>
       </c>
@@ -44988,7 +44998,7 @@
       <c r="F226" s="15"/>
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="15" t="s">
         <v>1190</v>
       </c>
@@ -45005,7 +45015,7 @@
       <c r="F227" s="15"/>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="15" t="s">
         <v>1191</v>
       </c>
@@ -45024,7 +45034,7 @@
       <c r="F228" s="15"/>
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="15" t="s">
         <v>1192</v>
       </c>
@@ -45043,7 +45053,7 @@
       </c>
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="15" t="s">
         <v>1193</v>
       </c>
@@ -45066,7 +45076,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
         <v>1194</v>
       </c>
@@ -45083,7 +45093,7 @@
       <c r="F231" s="15"/>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="s">
         <v>1195</v>
       </c>
@@ -45102,7 +45112,7 @@
       </c>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="15" t="s">
         <v>1196</v>
       </c>
@@ -45125,7 +45135,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="15" t="s">
         <v>1197</v>
       </c>
@@ -45142,7 +45152,7 @@
       <c r="F234" s="15"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="15" t="s">
         <v>1198</v>
       </c>
@@ -45159,7 +45169,7 @@
       <c r="F235" s="15"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="15" t="s">
         <v>1199</v>
       </c>
@@ -45178,7 +45188,7 @@
       <c r="F236" s="15"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
         <v>1200</v>
       </c>
@@ -45195,7 +45205,7 @@
       <c r="F237" s="15"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="15" t="s">
         <v>1201</v>
       </c>
@@ -45212,7 +45222,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="15" t="s">
         <v>1202</v>
       </c>
@@ -45229,7 +45239,7 @@
       <c r="F239" s="15"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
         <v>1203</v>
       </c>
@@ -45248,7 +45258,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="s">
         <v>1204</v>
       </c>
@@ -45267,7 +45277,7 @@
       <c r="F241" s="15"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="s">
         <v>1205</v>
       </c>
@@ -45284,7 +45294,7 @@
       <c r="F242" s="15"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="15" t="s">
         <v>1206</v>
       </c>
@@ -45303,7 +45313,7 @@
       <c r="F243" s="15"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
         <v>1207</v>
       </c>
@@ -45320,7 +45330,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="s">
         <v>1208</v>
       </c>
@@ -45337,7 +45347,7 @@
       <c r="F245" s="15"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="s">
         <v>1209</v>
       </c>
@@ -45354,7 +45364,7 @@
       <c r="F246" s="15"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
         <v>1210</v>
       </c>
@@ -45373,7 +45383,7 @@
       <c r="F247" s="15"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="15" t="s">
         <v>1211</v>
       </c>
@@ -45392,7 +45402,7 @@
       <c r="F248" s="15"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="15" t="s">
         <v>1212</v>
       </c>
@@ -45409,7 +45419,7 @@
       <c r="F249" s="15"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="s">
         <v>1213</v>
       </c>
@@ -45426,7 +45436,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="15" t="s">
         <v>1214</v>
       </c>
@@ -45443,7 +45453,7 @@
       <c r="F251" s="15"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="15" t="s">
         <v>1215</v>
       </c>
@@ -45460,7 +45470,7 @@
       <c r="F252" s="15"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
         <v>1216</v>
       </c>
@@ -45483,7 +45493,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
         <v>1217</v>
       </c>
@@ -45502,7 +45512,7 @@
       </c>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="15" t="s">
         <v>1218</v>
       </c>
@@ -45527,7 +45537,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="15" t="s">
         <v>1219</v>
       </c>
@@ -45544,7 +45554,7 @@
       <c r="F256" s="15"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="s">
         <v>1220</v>
       </c>
@@ -45561,7 +45571,7 @@
       <c r="F257" s="15"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="15" t="s">
         <v>1221</v>
       </c>
@@ -45578,7 +45588,7 @@
       <c r="F258" s="15"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="15" t="s">
         <v>1222</v>
       </c>
@@ -45595,7 +45605,7 @@
       <c r="F259" s="15"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="15" t="s">
         <v>1223</v>
       </c>
@@ -45612,7 +45622,7 @@
       <c r="F260" s="15"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="15" t="s">
         <v>1224</v>
       </c>
@@ -45629,7 +45639,7 @@
       <c r="F261" s="15"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="15" t="s">
         <v>1225</v>
       </c>
@@ -45646,7 +45656,7 @@
       <c r="F262" s="15"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="15" t="s">
         <v>1226</v>
       </c>
@@ -45663,7 +45673,7 @@
       <c r="F263" s="15"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="15" t="s">
         <v>1227</v>
       </c>
@@ -45682,7 +45692,7 @@
       </c>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="15" t="s">
         <v>1228</v>
       </c>
@@ -45707,7 +45717,7 @@
         <v>Armoured Fell Beast</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="15" t="s">
         <v>1229</v>
       </c>
@@ -45726,7 +45736,7 @@
       </c>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="15" t="s">
         <v>1230</v>
       </c>
@@ -45743,7 +45753,7 @@
       <c r="F267" s="15"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="15" t="s">
         <v>1231</v>
       </c>
@@ -45760,7 +45770,7 @@
       <c r="F268" s="15"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="15" t="s">
         <v>1232</v>
       </c>
@@ -45779,7 +45789,7 @@
       </c>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="15" t="s">
         <v>1233</v>
       </c>
@@ -45804,7 +45814,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="15" t="s">
         <v>1234</v>
       </c>
@@ -45821,7 +45831,7 @@
       <c r="F271" s="15"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="15" t="s">
         <v>1235</v>
       </c>
@@ -45844,7 +45854,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="15" t="s">
         <v>1236</v>
       </c>
@@ -45861,7 +45871,7 @@
       <c r="F273" s="15"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="15" t="s">
         <v>1237</v>
       </c>
@@ -45878,7 +45888,7 @@
       <c r="F274" s="15"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="15" t="s">
         <v>1238</v>
       </c>
@@ -45895,7 +45905,7 @@
       <c r="F275" s="15"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="15" t="s">
         <v>1239</v>
       </c>
@@ -45912,7 +45922,7 @@
       <c r="F276" s="15"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="15" t="s">
         <v>1240</v>
       </c>
@@ -45929,7 +45939,7 @@
       <c r="F277" s="15"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="15" t="s">
         <v>1241</v>
       </c>
@@ -45946,7 +45956,7 @@
       <c r="F278" s="15"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="15" t="s">
         <v>1242</v>
       </c>
@@ -45963,7 +45973,7 @@
       <c r="F279" s="15"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="15" t="s">
         <v>1243</v>
       </c>
@@ -45980,7 +45990,7 @@
       <c r="F280" s="15"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="15" t="s">
         <v>1244</v>
       </c>
@@ -45997,7 +46007,7 @@
       <c r="F281" s="15"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="15" t="s">
         <v>1245</v>
       </c>
@@ -46014,7 +46024,7 @@
       <c r="F282" s="15"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="15" t="s">
         <v>1246</v>
       </c>
@@ -46031,7 +46041,7 @@
       <c r="F283" s="15"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="15" t="s">
         <v>1247</v>
       </c>
@@ -46050,7 +46060,7 @@
       <c r="F284" s="15"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="15" t="s">
         <v>1248</v>
       </c>
@@ -46067,7 +46077,7 @@
       <c r="F285" s="15"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="15" t="s">
         <v>1249</v>
       </c>
@@ -46084,7 +46094,7 @@
       <c r="F286" s="15"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="15" t="s">
         <v>1250</v>
       </c>
@@ -46103,7 +46113,7 @@
       <c r="F287" s="15"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="15" t="s">
         <v>1251</v>
       </c>
@@ -46120,7 +46130,7 @@
       <c r="F288" s="15"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="15" t="s">
         <v>1252</v>
       </c>
@@ -46137,7 +46147,7 @@
       <c r="F289" s="15"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="15" t="s">
         <v>1253</v>
       </c>
@@ -46154,7 +46164,7 @@
       <c r="F290" s="15"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="15" t="s">
         <v>1254</v>
       </c>
@@ -46171,7 +46181,7 @@
       <c r="F291" s="15"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="15" t="s">
         <v>1255</v>
       </c>
@@ -46188,7 +46198,7 @@
       <c r="F292" s="15"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="15" t="s">
         <v>1256</v>
       </c>
@@ -46205,7 +46215,7 @@
       <c r="F293" s="15"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="15" t="s">
         <v>1257</v>
       </c>
@@ -46222,7 +46232,7 @@
       <c r="F294" s="15"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="15" t="s">
         <v>1258</v>
       </c>
@@ -46239,7 +46249,7 @@
       <c r="F295" s="15"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="15" t="s">
         <v>1259</v>
       </c>
@@ -46256,7 +46266,7 @@
       <c r="F296" s="15"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="15" t="s">
         <v>1260</v>
       </c>
@@ -46275,7 +46285,7 @@
       <c r="F297" s="15"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="15" t="s">
         <v>1261</v>
       </c>
@@ -46292,7 +46302,7 @@
       <c r="F298" s="15"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="15" t="s">
         <v>1262</v>
       </c>
@@ -46311,7 +46321,7 @@
       <c r="F299" s="15"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="15" t="s">
         <v>1263</v>
       </c>
@@ -46334,7 +46344,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="15" t="s">
         <v>1264</v>
       </c>
@@ -46351,7 +46361,7 @@
       <c r="F301" s="15"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="15" t="s">
         <v>1265</v>
       </c>
@@ -46368,7 +46378,7 @@
       <c r="F302" s="15"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="15" t="s">
         <v>1266</v>
       </c>
@@ -46385,7 +46395,7 @@
       <c r="F303" s="15"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="15" t="s">
         <v>1267</v>
       </c>
@@ -46404,7 +46414,7 @@
       <c r="F304" s="15"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="15" t="s">
         <v>1268</v>
       </c>
@@ -46421,7 +46431,7 @@
       <c r="F305" s="15"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="15" t="s">
         <v>1269</v>
       </c>
@@ -46438,7 +46448,7 @@
       <c r="F306" s="15"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="15" t="s">
         <v>1270</v>
       </c>
@@ -46463,7 +46473,7 @@
         <v>Asfaloth</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="15" t="s">
         <v>1271</v>
       </c>
@@ -46482,7 +46492,7 @@
       </c>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="15" t="s">
         <v>1272</v>
       </c>
@@ -46507,7 +46517,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="15" t="s">
         <v>1273</v>
       </c>
@@ -46526,7 +46536,7 @@
       </c>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="15" t="s">
         <v>1274</v>
       </c>
@@ -46545,7 +46555,7 @@
       </c>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="15" t="s">
         <v>1275</v>
       </c>
@@ -46562,7 +46572,7 @@
       <c r="F312" s="15"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="15" t="s">
         <v>1276</v>
       </c>
@@ -46587,7 +46597,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="15" t="s">
         <v>1277</v>
       </c>
@@ -46612,7 +46622,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="15" t="s">
         <v>1278</v>
       </c>
@@ -46629,7 +46639,7 @@
       <c r="F315" s="15"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="15" t="s">
         <v>1279</v>
       </c>
@@ -46646,7 +46656,7 @@
       <c r="F316" s="15"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="15" t="s">
         <v>1280</v>
       </c>
@@ -46663,7 +46673,7 @@
       <c r="F317" s="15"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="15" t="s">
         <v>1281</v>
       </c>
@@ -46726,7 +46736,7 @@
       <c r="F320" s="15"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="15" t="s">
         <v>1284</v>
       </c>
@@ -46751,7 +46761,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="15" t="s">
         <v>1285</v>
       </c>
@@ -46770,7 +46780,7 @@
       </c>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="15" t="s">
         <v>1286</v>
       </c>
@@ -46795,7 +46805,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="15" t="s">
         <v>1287</v>
       </c>
@@ -46814,7 +46824,7 @@
       </c>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="15" t="s">
         <v>1288</v>
       </c>
@@ -46831,7 +46841,7 @@
       <c r="F325" s="15"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="15" t="s">
         <v>1289</v>
       </c>
@@ -46848,7 +46858,7 @@
       <c r="F326" s="15"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="15" t="s">
         <v>1290</v>
       </c>
@@ -46867,7 +46877,7 @@
       <c r="F327" s="15"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="15" t="s">
         <v>1291</v>
       </c>
@@ -46884,7 +46894,7 @@
       <c r="F328" s="15"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="15" t="s">
         <v>1292</v>
       </c>
@@ -46903,7 +46913,7 @@
       <c r="F329" s="15"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="15" t="s">
         <v>1293</v>
       </c>
@@ -46920,7 +46930,7 @@
       <c r="F330" s="15"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="15" t="s">
         <v>1294</v>
       </c>
@@ -46937,7 +46947,7 @@
       <c r="F331" s="15"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="15" t="s">
         <v>1295</v>
       </c>
@@ -46954,7 +46964,7 @@
       <c r="F332" s="15"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="15" t="s">
         <v>1296</v>
       </c>
@@ -46973,7 +46983,7 @@
       </c>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="15" t="s">
         <v>1297</v>
       </c>
@@ -46998,7 +47008,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="15" t="s">
         <v>1298</v>
       </c>
@@ -47015,7 +47025,7 @@
       <c r="F335" s="15"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="15" t="s">
         <v>1299</v>
       </c>
@@ -47034,7 +47044,7 @@
       </c>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="15" t="s">
         <v>1300</v>
       </c>
@@ -47059,7 +47069,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="15" t="s">
         <v>1301</v>
       </c>
@@ -47076,7 +47086,7 @@
       <c r="F338" s="15"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="15" t="s">
         <v>1302</v>
       </c>
@@ -47093,7 +47103,7 @@
       <c r="F339" s="15"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="15" t="s">
         <v>1303</v>
       </c>
@@ -47112,7 +47122,7 @@
       <c r="F340" s="15"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="15" t="s">
         <v>1304</v>
       </c>
@@ -47129,7 +47139,7 @@
       <c r="F341" s="15"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="15" t="s">
         <v>1305</v>
       </c>
@@ -47146,7 +47156,7 @@
       <c r="F342" s="15"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="15" t="s">
         <v>1306</v>
       </c>
@@ -47169,7 +47179,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="15" t="s">
         <v>1307</v>
       </c>
@@ -47186,7 +47196,7 @@
       <c r="F344" s="15"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="15" t="s">
         <v>1308</v>
       </c>
@@ -47203,7 +47213,7 @@
       <c r="F345" s="15"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="15" t="s">
         <v>1309</v>
       </c>
@@ -47220,7 +47230,7 @@
       <c r="F346" s="15"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="15" t="s">
         <v>1310</v>
       </c>
@@ -47237,7 +47247,7 @@
       <c r="F347" s="15"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="15" t="s">
         <v>1311</v>
       </c>
@@ -47256,7 +47266,7 @@
       <c r="F348" s="15"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="15" t="s">
         <v>1312</v>
       </c>
@@ -47273,7 +47283,7 @@
       <c r="F349" s="15"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="15" t="s">
         <v>1313</v>
       </c>
@@ -47292,7 +47302,7 @@
       <c r="F350" s="15"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="15" t="s">
         <v>1314</v>
       </c>
@@ -47309,7 +47319,7 @@
       <c r="F351" s="15"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="15" t="s">
         <v>1315</v>
       </c>
@@ -47326,7 +47336,7 @@
       <c r="F352" s="15"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="15" t="s">
         <v>1316</v>
       </c>
@@ -47343,7 +47353,7 @@
       <c r="F353" s="15"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="15" t="s">
         <v>1317</v>
       </c>
@@ -47360,7 +47370,7 @@
       <c r="F354" s="15"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="15" t="s">
         <v>1318</v>
       </c>
@@ -47377,7 +47387,7 @@
       <c r="F355" s="15"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="15" t="s">
         <v>1319</v>
       </c>
@@ -47396,7 +47406,7 @@
       <c r="F356" s="15"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="15" t="s">
         <v>1320</v>
       </c>
@@ -47413,7 +47423,7 @@
       <c r="F357" s="15"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="15" t="s">
         <v>1321</v>
       </c>
@@ -47430,7 +47440,7 @@
       <c r="F358" s="15"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="15" t="s">
         <v>1322</v>
       </c>
@@ -47447,7 +47457,7 @@
       <c r="F359" s="15"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="15" t="s">
         <v>1323</v>
       </c>
@@ -47466,7 +47476,7 @@
       <c r="F360" s="15"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="15" t="s">
         <v>1324</v>
       </c>
@@ -47485,7 +47495,7 @@
       <c r="F361" s="15"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="15" t="s">
         <v>1325</v>
       </c>
@@ -47502,7 +47512,7 @@
       <c r="F362" s="15"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="15" t="s">
         <v>1326</v>
       </c>
@@ -47521,7 +47531,7 @@
       <c r="F363" s="15"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="15" t="s">
         <v>1327</v>
       </c>
@@ -47538,7 +47548,7 @@
       <c r="F364" s="15"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="15" t="s">
         <v>1328</v>
       </c>
@@ -47555,7 +47565,7 @@
       <c r="F365" s="15"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="15" t="s">
         <v>1329</v>
       </c>
@@ -47574,7 +47584,7 @@
       <c r="F366" s="15"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="15" t="s">
         <v>1330</v>
       </c>
@@ -47591,7 +47601,7 @@
       <c r="F367" s="15"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="15" t="s">
         <v>1331</v>
       </c>
@@ -47608,7 +47618,7 @@
       <c r="F368" s="15"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="15" t="s">
         <v>1332</v>
       </c>
@@ -47625,7 +47635,7 @@
       <c r="F369" s="15"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="15" t="s">
         <v>1333</v>
       </c>
@@ -47642,7 +47652,7 @@
       <c r="F370" s="15"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="15" t="s">
         <v>1334</v>
       </c>
@@ -47665,7 +47675,7 @@
         <v>Gandalf's Cart</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="15" t="s">
         <v>1335</v>
       </c>
@@ -47682,7 +47692,7 @@
       <c r="F372" s="15"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="15" t="s">
         <v>1336</v>
       </c>
@@ -47699,7 +47709,7 @@
       <c r="F373" s="15"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="15" t="s">
         <v>1337</v>
       </c>
@@ -47718,7 +47728,7 @@
       </c>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="15" t="s">
         <v>1338</v>
       </c>
@@ -47741,7 +47751,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A376" s="15" t="s">
         <v>1339</v>
       </c>
@@ -47760,7 +47770,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="15" t="s">
         <v>1340</v>
       </c>
@@ -47777,7 +47787,7 @@
       <c r="F377" s="15"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="15" t="s">
         <v>1341</v>
       </c>
@@ -47794,7 +47804,7 @@
       <c r="F378" s="15"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="15" t="s">
         <v>1342</v>
       </c>
@@ -47813,7 +47823,7 @@
       <c r="F379" s="15"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="15" t="s">
         <v>1343</v>
       </c>
@@ -47836,7 +47846,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="15" t="s">
         <v>1344</v>
       </c>
@@ -47858,7 +47868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="15" t="s">
         <v>1345</v>
       </c>
@@ -47875,7 +47885,7 @@
       <c r="F382" s="15"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="15" t="s">
         <v>1346</v>
       </c>
@@ -47892,7 +47902,7 @@
       <c r="F383" s="15"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="15" t="s">
         <v>1347</v>
       </c>
@@ -47911,7 +47921,7 @@
       <c r="F384" s="15"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="15" t="s">
         <v>1348</v>
       </c>
@@ -47928,7 +47938,7 @@
       <c r="F385" s="15"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="15" t="s">
         <v>1349</v>
       </c>
@@ -47945,7 +47955,7 @@
       <c r="F386" s="15"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A387" s="15" t="s">
         <v>1350</v>
       </c>
@@ -47966,7 +47976,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="15" t="s">
         <v>1351</v>
       </c>
@@ -47991,7 +48001,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="15" t="s">
         <v>1352</v>
       </c>
@@ -48010,7 +48020,7 @@
       </c>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="15" t="s">
         <v>1353</v>
       </c>
@@ -48029,7 +48039,7 @@
       <c r="F390" s="15"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="15" t="s">
         <v>1354</v>
       </c>
@@ -48054,7 +48064,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="15" t="s">
         <v>1355</v>
       </c>
@@ -48071,7 +48081,7 @@
       <c r="F392" s="15"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="15" t="s">
         <v>1356</v>
       </c>
@@ -48088,7 +48098,7 @@
       <c r="F393" s="15"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="15" t="s">
         <v>1357</v>
       </c>
@@ -48105,7 +48115,7 @@
       <c r="F394" s="15"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="15" t="s">
         <v>1358</v>
       </c>
@@ -48124,7 +48134,7 @@
       <c r="F395" s="15"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="15" t="s">
         <v>1359</v>
       </c>
@@ -48149,7 +48159,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="15" t="s">
         <v>1360</v>
       </c>
@@ -48174,7 +48184,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="15" t="s">
         <v>1361</v>
       </c>
@@ -48193,7 +48203,7 @@
       </c>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="15" t="s">
         <v>1362</v>
       </c>
@@ -48212,7 +48222,7 @@
       </c>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="15" t="s">
         <v>1363</v>
       </c>
@@ -48237,7 +48247,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="15" t="s">
         <v>1364</v>
       </c>
@@ -48256,7 +48266,7 @@
       </c>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="15" t="s">
         <v>1365</v>
       </c>
@@ -48275,7 +48285,7 @@
       <c r="F402" s="15"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="15" t="s">
         <v>1366</v>
       </c>
@@ -48299,7 +48309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="15" t="s">
         <v>1367</v>
       </c>
@@ -48324,7 +48334,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="15" t="s">
         <v>1368</v>
       </c>
@@ -48343,7 +48353,7 @@
       </c>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="15" t="s">
         <v>1369</v>
       </c>
@@ -48360,7 +48370,7 @@
       <c r="F406" s="15"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="15" t="s">
         <v>1370</v>
       </c>
@@ -48379,7 +48389,7 @@
       <c r="F407" s="15"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="15" t="s">
         <v>1371</v>
       </c>
@@ -48396,7 +48406,7 @@
       <c r="F408" s="15"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="15" t="s">
         <v>1372</v>
       </c>
@@ -48421,7 +48431,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="15" t="s">
         <v>1373</v>
       </c>
@@ -48446,7 +48456,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="15" t="s">
         <v>1374</v>
       </c>
@@ -48463,7 +48473,7 @@
       <c r="F411" s="15"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="15" t="s">
         <v>1375</v>
       </c>
@@ -48480,7 +48490,7 @@
       <c r="F412" s="15"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="15" t="s">
         <v>1376</v>
       </c>
@@ -48497,7 +48507,7 @@
       <c r="F413" s="15"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="15" t="s">
         <v>1377</v>
       </c>
@@ -48554,7 +48564,7 @@
       <c r="F416" s="15"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" s="15" t="s">
         <v>1380</v>
       </c>
@@ -48571,7 +48581,7 @@
       <c r="F417" s="15"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" s="15" t="s">
         <v>1381</v>
       </c>
@@ -48594,7 +48604,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" s="15" t="s">
         <v>1382</v>
       </c>
@@ -48617,7 +48627,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="15" t="s">
         <v>1383</v>
       </c>
@@ -48634,7 +48644,7 @@
       <c r="F420" s="15"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="15" t="s">
         <v>1384</v>
       </c>
@@ -48651,7 +48661,7 @@
       <c r="F421" s="15"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="15" t="s">
         <v>1385</v>
       </c>
@@ -48674,7 +48684,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" s="15" t="s">
         <v>1386</v>
       </c>
@@ -48693,7 +48703,7 @@
       <c r="F423" s="15"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" s="15" t="s">
         <v>1387</v>
       </c>
@@ -48710,7 +48720,7 @@
       <c r="F424" s="15"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" s="15" t="s">
         <v>1388</v>
       </c>
@@ -48729,7 +48739,7 @@
       <c r="F425" s="15"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" s="15" t="s">
         <v>1389</v>
       </c>
@@ -48746,7 +48756,7 @@
       <c r="F426" s="15"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" s="15" t="s">
         <v>1390</v>
       </c>
@@ -48765,7 +48775,7 @@
       <c r="F427" s="15"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" s="15" t="s">
         <v>1391</v>
       </c>
@@ -48782,7 +48792,7 @@
       <c r="F428" s="15"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="15" t="s">
         <v>1392</v>
       </c>
@@ -48801,7 +48811,7 @@
       <c r="F429" s="15"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" s="15" t="s">
         <v>1393</v>
       </c>
@@ -48824,7 +48834,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" s="15" t="s">
         <v>1394</v>
       </c>
@@ -48841,7 +48851,7 @@
       <c r="F431" s="15"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" s="15" t="s">
         <v>1395</v>
       </c>
@@ -48864,7 +48874,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="15" t="s">
         <v>1396</v>
       </c>
@@ -48881,7 +48891,7 @@
       <c r="F433" s="15"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="15" t="s">
         <v>1397</v>
       </c>
@@ -48900,7 +48910,7 @@
       </c>
       <c r="G434" s="15"/>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="15" t="s">
         <v>1398</v>
       </c>
@@ -48917,7 +48927,7 @@
       <c r="F435" s="15"/>
       <c r="G435" s="15"/>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="15" t="s">
         <v>1399</v>
       </c>
@@ -48934,7 +48944,7 @@
       <c r="F436" s="15"/>
       <c r="G436" s="15"/>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="15" t="s">
         <v>1400</v>
       </c>
@@ -48951,7 +48961,7 @@
       <c r="F437" s="15"/>
       <c r="G437" s="15"/>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="15" t="s">
         <v>1401</v>
       </c>
@@ -48968,7 +48978,7 @@
       <c r="F438" s="15"/>
       <c r="G438" s="15"/>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="15" t="s">
         <v>1402</v>
       </c>
@@ -48987,7 +48997,7 @@
       <c r="F439" s="15"/>
       <c r="G439" s="15"/>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="15" t="s">
         <v>1403</v>
       </c>
@@ -49004,7 +49014,7 @@
       <c r="F440" s="15"/>
       <c r="G440" s="15"/>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="15" t="s">
         <v>1404</v>
       </c>
@@ -49023,7 +49033,7 @@
       <c r="F441" s="15"/>
       <c r="G441" s="15"/>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="15" t="s">
         <v>1405</v>
       </c>
@@ -49040,7 +49050,7 @@
       <c r="F442" s="15"/>
       <c r="G442" s="15"/>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="15" t="s">
         <v>1406</v>
       </c>
@@ -49057,7 +49067,7 @@
       <c r="F443" s="15"/>
       <c r="G443" s="15"/>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="15" t="s">
         <v>1407</v>
       </c>
@@ -49074,7 +49084,7 @@
       <c r="F444" s="15"/>
       <c r="G444" s="15"/>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="15" t="s">
         <v>1408</v>
       </c>
@@ -49091,7 +49101,7 @@
       <c r="F445" s="15"/>
       <c r="G445" s="15"/>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="15" t="s">
         <v>1409</v>
       </c>
@@ -49108,7 +49118,7 @@
       <c r="F446" s="15"/>
       <c r="G446" s="15"/>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="15" t="s">
         <v>1410</v>
       </c>
@@ -49127,7 +49137,7 @@
       <c r="F447" s="15"/>
       <c r="G447" s="15"/>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="15" t="s">
         <v>1411</v>
       </c>
@@ -49144,7 +49154,7 @@
       <c r="F448" s="15"/>
       <c r="G448" s="15"/>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" s="15" t="s">
         <v>1412</v>
       </c>
@@ -49161,7 +49171,7 @@
       <c r="F449" s="15"/>
       <c r="G449" s="15"/>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450" s="15" t="s">
         <v>1413</v>
       </c>
@@ -49178,7 +49188,7 @@
       <c r="F450" s="15"/>
       <c r="G450" s="15"/>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451" s="15" t="s">
         <v>1414</v>
       </c>
@@ -49195,7 +49205,7 @@
       <c r="F451" s="15"/>
       <c r="G451" s="15"/>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452" s="15" t="s">
         <v>1415</v>
       </c>
@@ -49214,7 +49224,7 @@
       <c r="F452" s="15"/>
       <c r="G452" s="15"/>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453" s="15" t="s">
         <v>1416</v>
       </c>
@@ -49231,7 +49241,7 @@
       <c r="F453" s="15"/>
       <c r="G453" s="15"/>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454" s="15" t="s">
         <v>1417</v>
       </c>
@@ -49248,7 +49258,7 @@
       <c r="F454" s="15"/>
       <c r="G454" s="15"/>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455" s="15" t="s">
         <v>1418</v>
       </c>
@@ -49267,7 +49277,7 @@
       </c>
       <c r="G455" s="15"/>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" s="15" t="s">
         <v>1419</v>
       </c>
@@ -49286,7 +49296,7 @@
       </c>
       <c r="G456" s="15"/>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457" s="15" t="s">
         <v>1420</v>
       </c>
@@ -49305,7 +49315,7 @@
       </c>
       <c r="G457" s="15"/>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" s="15" t="s">
         <v>1421</v>
       </c>
@@ -49324,7 +49334,7 @@
       </c>
       <c r="G458" s="15"/>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459" s="15" t="s">
         <v>1422</v>
       </c>
@@ -49341,7 +49351,7 @@
       <c r="F459" s="15"/>
       <c r="G459" s="15"/>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460" s="15" t="s">
         <v>1423</v>
       </c>
@@ -49364,7 +49374,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461" s="15" t="s">
         <v>1424</v>
       </c>
@@ -49381,7 +49391,7 @@
       <c r="F461" s="15"/>
       <c r="G461" s="15"/>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462" s="15" t="s">
         <v>1425</v>
       </c>
@@ -49398,7 +49408,7 @@
       <c r="F462" s="15"/>
       <c r="G462" s="15"/>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463" s="15" t="s">
         <v>1426</v>
       </c>
@@ -49415,7 +49425,7 @@
       <c r="F463" s="15"/>
       <c r="G463" s="15"/>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464" s="15" t="s">
         <v>1427</v>
       </c>
@@ -49432,7 +49442,7 @@
       <c r="F464" s="15"/>
       <c r="G464" s="15"/>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" s="15" t="s">
         <v>1428</v>
       </c>
@@ -49449,7 +49459,7 @@
       <c r="F465" s="15"/>
       <c r="G465" s="15"/>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" s="15" t="s">
         <v>1429</v>
       </c>
@@ -49468,7 +49478,7 @@
       <c r="F466" s="15"/>
       <c r="G466" s="15"/>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467" s="15" t="s">
         <v>1430</v>
       </c>
@@ -49485,7 +49495,7 @@
       <c r="F467" s="15"/>
       <c r="G467" s="15"/>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468" s="15" t="s">
         <v>1431</v>
       </c>
@@ -49502,7 +49512,7 @@
       <c r="F468" s="15"/>
       <c r="G468" s="15"/>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" s="15" t="s">
         <v>1432</v>
       </c>
@@ -49519,7 +49529,7 @@
       <c r="F469" s="15"/>
       <c r="G469" s="15"/>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470" s="15" t="s">
         <v>1433</v>
       </c>
@@ -49536,7 +49546,7 @@
       <c r="F470" s="15"/>
       <c r="G470" s="15"/>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471" s="15" t="s">
         <v>1434</v>
       </c>
@@ -49555,7 +49565,7 @@
       <c r="F471" s="15"/>
       <c r="G471" s="15"/>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472" s="15" t="s">
         <v>1435</v>
       </c>
@@ -49572,7 +49582,7 @@
       <c r="F472" s="15"/>
       <c r="G472" s="15"/>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473" s="15" t="s">
         <v>1436</v>
       </c>
@@ -49589,7 +49599,7 @@
       <c r="F473" s="15"/>
       <c r="G473" s="15"/>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" s="15" t="s">
         <v>1437</v>
       </c>
@@ -49611,7 +49621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" s="15" t="s">
         <v>1438</v>
       </c>
@@ -49634,7 +49644,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" s="15" t="s">
         <v>1439</v>
       </c>
@@ -49651,7 +49661,7 @@
       <c r="F476" s="15"/>
       <c r="G476" s="15"/>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477" s="15" t="s">
         <v>1440</v>
       </c>
@@ -49668,7 +49678,7 @@
       <c r="F477" s="15"/>
       <c r="G477" s="15"/>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" s="15" t="s">
         <v>1441</v>
       </c>
@@ -49685,7 +49695,7 @@
       <c r="F478" s="15"/>
       <c r="G478" s="15"/>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479" s="15" t="s">
         <v>1442</v>
       </c>
@@ -49702,7 +49712,7 @@
       <c r="F479" s="15"/>
       <c r="G479" s="15"/>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480" s="15" t="s">
         <v>1443</v>
       </c>
@@ -49719,7 +49729,7 @@
       <c r="F480" s="15"/>
       <c r="G480" s="15"/>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481" s="15" t="s">
         <v>1444</v>
       </c>
@@ -49738,7 +49748,7 @@
       <c r="F481" s="15"/>
       <c r="G481" s="15"/>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482" s="15" t="s">
         <v>1445</v>
       </c>
@@ -49755,7 +49765,7 @@
       <c r="F482" s="15"/>
       <c r="G482" s="15"/>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483" s="15" t="s">
         <v>1446</v>
       </c>
@@ -49774,7 +49784,7 @@
       <c r="F483" s="15"/>
       <c r="G483" s="15"/>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484" s="15" t="s">
         <v>1447</v>
       </c>
@@ -49791,7 +49801,7 @@
       <c r="F484" s="15"/>
       <c r="G484" s="15"/>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485" s="15" t="s">
         <v>1448</v>
       </c>
@@ -49808,7 +49818,7 @@
       <c r="F485" s="15"/>
       <c r="G485" s="15"/>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486" s="15" t="s">
         <v>1449</v>
       </c>
@@ -49825,7 +49835,7 @@
       <c r="F486" s="15"/>
       <c r="G486" s="15"/>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487" s="15" t="s">
         <v>1450</v>
       </c>
@@ -49842,7 +49852,7 @@
       <c r="F487" s="15"/>
       <c r="G487" s="15"/>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488" s="15" t="s">
         <v>1451</v>
       </c>
@@ -49859,7 +49869,7 @@
       <c r="F488" s="15"/>
       <c r="G488" s="15"/>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489" s="15" t="s">
         <v>1452</v>
       </c>
@@ -49876,7 +49886,7 @@
       <c r="F489" s="15"/>
       <c r="G489" s="15"/>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490" s="15" t="s">
         <v>1453</v>
       </c>
@@ -49895,7 +49905,7 @@
       </c>
       <c r="G490" s="15"/>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491" s="15" t="s">
         <v>1454</v>
       </c>
@@ -49912,7 +49922,7 @@
       <c r="F491" s="15"/>
       <c r="G491" s="15"/>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492" s="15" t="s">
         <v>1455</v>
       </c>
@@ -49929,7 +49939,7 @@
       <c r="F492" s="15"/>
       <c r="G492" s="15"/>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493" s="15" t="s">
         <v>1456</v>
       </c>
@@ -49946,7 +49956,7 @@
       <c r="F493" s="15"/>
       <c r="G493" s="15"/>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494" s="15" t="s">
         <v>1457</v>
       </c>
@@ -49963,7 +49973,7 @@
       <c r="F494" s="15"/>
       <c r="G494" s="15"/>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495" s="15" t="s">
         <v>1458</v>
       </c>
@@ -49985,7 +49995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496" s="15" t="s">
         <v>1459</v>
       </c>
@@ -50008,7 +50018,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="15" t="s">
         <v>1460</v>
       </c>
@@ -50025,7 +50035,7 @@
       <c r="F497" s="15"/>
       <c r="G497" s="15"/>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="15" t="s">
         <v>1461</v>
       </c>
@@ -50042,7 +50052,7 @@
       <c r="F498" s="15"/>
       <c r="G498" s="15"/>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="15" t="s">
         <v>1462</v>
       </c>
@@ -50059,7 +50069,7 @@
       <c r="F499" s="15"/>
       <c r="G499" s="15"/>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="15" t="s">
         <v>1463</v>
       </c>
@@ -50076,7 +50086,7 @@
       <c r="F500" s="15"/>
       <c r="G500" s="15"/>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="15" t="s">
         <v>1464</v>
       </c>
@@ -50093,7 +50103,7 @@
       <c r="F501" s="15"/>
       <c r="G501" s="15"/>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="15" t="s">
         <v>1465</v>
       </c>
@@ -50110,7 +50120,7 @@
       <c r="F502" s="15"/>
       <c r="G502" s="15"/>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="15" t="s">
         <v>1466</v>
       </c>
@@ -50127,7 +50137,7 @@
       <c r="F503" s="15"/>
       <c r="G503" s="15"/>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="15" t="s">
         <v>1467</v>
       </c>
@@ -50144,7 +50154,7 @@
       <c r="F504" s="15"/>
       <c r="G504" s="15"/>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="15" t="s">
         <v>1468</v>
       </c>
@@ -50161,7 +50171,7 @@
       <c r="F505" s="15"/>
       <c r="G505" s="15"/>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="15" t="s">
         <v>1469</v>
       </c>
@@ -50180,7 +50190,7 @@
       <c r="F506" s="15"/>
       <c r="G506" s="15"/>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="15" t="s">
         <v>1470</v>
       </c>
@@ -50197,7 +50207,7 @@
       <c r="F507" s="15"/>
       <c r="G507" s="15"/>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="15" t="s">
         <v>1471</v>
       </c>
@@ -50216,7 +50226,7 @@
       <c r="F508" s="15"/>
       <c r="G508" s="15"/>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="15" t="s">
         <v>1472</v>
       </c>
@@ -50233,7 +50243,7 @@
       <c r="F509" s="15"/>
       <c r="G509" s="15"/>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="15" t="s">
         <v>1473</v>
       </c>
@@ -50250,7 +50260,7 @@
       <c r="F510" s="15"/>
       <c r="G510" s="15"/>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="15" t="s">
         <v>1474</v>
       </c>
@@ -50267,7 +50277,7 @@
       <c r="F511" s="15"/>
       <c r="G511" s="15"/>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="15" t="s">
         <v>1475</v>
       </c>
@@ -50284,7 +50294,7 @@
       <c r="F512" s="15"/>
       <c r="G512" s="15"/>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A513" s="15" t="s">
         <v>1476</v>
       </c>
@@ -50301,7 +50311,7 @@
       <c r="F513" s="15"/>
       <c r="G513" s="15"/>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A514" s="15" t="s">
         <v>1477</v>
       </c>
@@ -50318,7 +50328,7 @@
       <c r="F514" s="15"/>
       <c r="G514" s="15"/>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A515" s="15" t="s">
         <v>1478</v>
       </c>
@@ -50335,7 +50345,7 @@
       <c r="F515" s="15"/>
       <c r="G515" s="15"/>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A516" s="15" t="s">
         <v>1479</v>
       </c>
@@ -50360,7 +50370,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A517" s="15" t="s">
         <v>1480</v>
       </c>
@@ -50379,7 +50389,7 @@
       </c>
       <c r="G517" s="15"/>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518" s="15" t="s">
         <v>1481</v>
       </c>
@@ -50398,7 +50408,7 @@
       </c>
       <c r="G518" s="15"/>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A519" s="15" t="s">
         <v>1482</v>
       </c>
@@ -50423,7 +50433,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A520" s="15" t="s">
         <v>1483</v>
       </c>
@@ -50442,7 +50452,7 @@
       </c>
       <c r="G520" s="15"/>
     </row>
-    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A521" s="15" t="s">
         <v>1484</v>
       </c>
@@ -50461,7 +50471,7 @@
       <c r="F521" s="15"/>
       <c r="G521" s="15"/>
     </row>
-    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A522" s="15" t="s">
         <v>1485</v>
       </c>
@@ -50485,7 +50495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A523" s="15" t="s">
         <v>1486</v>
       </c>
@@ -50510,7 +50520,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A524" s="15" t="s">
         <v>1487</v>
       </c>
@@ -50529,7 +50539,7 @@
       </c>
       <c r="G524" s="15"/>
     </row>
-    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525" s="15" t="s">
         <v>1488</v>
       </c>
@@ -50546,7 +50556,7 @@
       <c r="F525" s="15"/>
       <c r="G525" s="15"/>
     </row>
-    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526" s="15" t="s">
         <v>1489</v>
       </c>
@@ -50565,7 +50575,7 @@
       <c r="F526" s="15"/>
       <c r="G526" s="15"/>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527" s="15" t="s">
         <v>1490</v>
       </c>
@@ -50582,7 +50592,7 @@
       <c r="F527" s="15"/>
       <c r="G527" s="15"/>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A528" s="15" t="s">
         <v>1491</v>
       </c>
@@ -50607,7 +50617,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A529" s="15" t="s">
         <v>1492</v>
       </c>
@@ -50632,7 +50642,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530" s="15" t="s">
         <v>1493</v>
       </c>
@@ -50649,7 +50659,7 @@
       <c r="F530" s="15"/>
       <c r="G530" s="15"/>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A531" s="15" t="s">
         <v>1494</v>
       </c>
@@ -50666,7 +50676,7 @@
       <c r="F531" s="15"/>
       <c r="G531" s="15"/>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A532" s="15" t="s">
         <v>1495</v>
       </c>
@@ -50683,7 +50693,7 @@
       <c r="F532" s="15"/>
       <c r="G532" s="15"/>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A533" s="15" t="s">
         <v>1496</v>
       </c>
@@ -50746,7 +50756,7 @@
       <c r="F535" s="15"/>
       <c r="G535" s="15"/>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A536" s="15" t="s">
         <v>1499</v>
       </c>
@@ -50769,7 +50779,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A537" s="15" t="s">
         <v>1500</v>
       </c>
@@ -50791,7 +50801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A538" s="15" t="s">
         <v>1501</v>
       </c>
@@ -50814,7 +50824,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A539" s="15" t="s">
         <v>1502</v>
       </c>
@@ -50831,7 +50841,7 @@
       <c r="F539" s="15"/>
       <c r="G539" s="15"/>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A540" s="15" t="s">
         <v>1503</v>
       </c>
@@ -50848,7 +50858,7 @@
       <c r="F540" s="15"/>
       <c r="G540" s="15"/>
     </row>
-    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A541" s="15" t="s">
         <v>1504</v>
       </c>
@@ -50865,7 +50875,7 @@
       <c r="F541" s="15"/>
       <c r="G541" s="15"/>
     </row>
-    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A542" s="15" t="s">
         <v>1505</v>
       </c>
@@ -50882,7 +50892,7 @@
       <c r="F542" s="15"/>
       <c r="G542" s="15"/>
     </row>
-    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A543" s="15" t="s">
         <v>1506</v>
       </c>
@@ -50899,7 +50909,7 @@
       <c r="F543" s="15"/>
       <c r="G543" s="15"/>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A544" s="15" t="s">
         <v>1507</v>
       </c>
@@ -50918,7 +50928,7 @@
       <c r="F544" s="15"/>
       <c r="G544" s="15"/>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A545" s="15" t="s">
         <v>1508</v>
       </c>
@@ -50941,7 +50951,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A546" s="15" t="s">
         <v>1509</v>
       </c>
@@ -50964,7 +50974,7 @@
         <v>Firefoot</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A547" s="15" t="s">
         <v>1510</v>
       </c>
@@ -50981,7 +50991,7 @@
       <c r="F547" s="15"/>
       <c r="G547" s="15"/>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A548" s="15" t="s">
         <v>1511</v>
       </c>
@@ -51000,7 +51010,7 @@
       <c r="F548" s="15"/>
       <c r="G548" s="15"/>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A549" s="15" t="s">
         <v>1512</v>
       </c>
@@ -51017,7 +51027,7 @@
       <c r="F549" s="15"/>
       <c r="G549" s="15"/>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A550" s="15" t="s">
         <v>1513</v>
       </c>
@@ -51034,7 +51044,7 @@
       <c r="F550" s="15"/>
       <c r="G550" s="15"/>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A551" s="15" t="s">
         <v>1514</v>
       </c>
@@ -51051,7 +51061,7 @@
       <c r="F551" s="15"/>
       <c r="G551" s="15"/>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A552" s="15" t="s">
         <v>1515</v>
       </c>
@@ -51068,7 +51078,7 @@
       <c r="F552" s="15"/>
       <c r="G552" s="15"/>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A553" s="15" t="s">
         <v>1516</v>
       </c>
@@ -51087,7 +51097,7 @@
       <c r="F553" s="15"/>
       <c r="G553" s="15"/>
     </row>
-    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A554" s="15" t="s">
         <v>1517</v>
       </c>
@@ -51104,7 +51114,7 @@
       <c r="F554" s="15"/>
       <c r="G554" s="15"/>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A555" s="15" t="s">
         <v>1518</v>
       </c>
@@ -51123,7 +51133,7 @@
       <c r="F555" s="15"/>
       <c r="G555" s="15"/>
     </row>
-    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A556" s="15" t="s">
         <v>1519</v>
       </c>
@@ -51140,7 +51150,7 @@
       <c r="F556" s="15"/>
       <c r="G556" s="15"/>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A557" s="15" t="s">
         <v>1520</v>
       </c>
@@ -51159,7 +51169,7 @@
       <c r="F557" s="15"/>
       <c r="G557" s="15"/>
     </row>
-    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A558" s="15" t="s">
         <v>1521</v>
       </c>
@@ -51182,7 +51192,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A559" s="15" t="s">
         <v>1522</v>
       </c>
@@ -51199,7 +51209,7 @@
       <c r="F559" s="15"/>
       <c r="G559" s="15"/>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A560" s="15" t="s">
         <v>1523</v>
       </c>
@@ -51216,7 +51226,7 @@
       <c r="F560" s="15"/>
       <c r="G560" s="15"/>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="15" t="s">
         <v>1524</v>
       </c>
@@ -51233,7 +51243,7 @@
       <c r="F561" s="15"/>
       <c r="G561" s="15"/>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="15" t="s">
         <v>1525</v>
       </c>
@@ -51250,7 +51260,7 @@
       <c r="F562" s="15"/>
       <c r="G562" s="15"/>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="15" t="s">
         <v>1526</v>
       </c>
@@ -51267,7 +51277,7 @@
       <c r="F563" s="15"/>
       <c r="G563" s="15"/>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="15" t="s">
         <v>1527</v>
       </c>
@@ -51286,7 +51296,7 @@
       <c r="F564" s="15"/>
       <c r="G564" s="15"/>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="15" t="s">
         <v>1528</v>
       </c>
@@ -51303,7 +51313,7 @@
       <c r="F565" s="15"/>
       <c r="G565" s="15"/>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="15" t="s">
         <v>1529</v>
       </c>
@@ -51322,7 +51332,7 @@
       <c r="F566" s="15"/>
       <c r="G566" s="15"/>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="15" t="s">
         <v>1530</v>
       </c>
@@ -51341,7 +51351,7 @@
       <c r="F567" s="15"/>
       <c r="G567" s="15"/>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="15" t="s">
         <v>1531</v>
       </c>
@@ -51358,7 +51368,7 @@
       <c r="F568" s="15"/>
       <c r="G568" s="15"/>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" s="15" t="s">
         <v>1532</v>
       </c>
@@ -51377,7 +51387,7 @@
       <c r="F569" s="15"/>
       <c r="G569" s="15"/>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="15" t="s">
         <v>1533</v>
       </c>
@@ -51394,7 +51404,7 @@
       <c r="F570" s="15"/>
       <c r="G570" s="15"/>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="15" t="s">
         <v>1534</v>
       </c>
@@ -51411,7 +51421,7 @@
       <c r="F571" s="15"/>
       <c r="G571" s="15"/>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="15" t="s">
         <v>1535</v>
       </c>
@@ -51428,7 +51438,7 @@
       <c r="F572" s="15"/>
       <c r="G572" s="15"/>
     </row>
-    <row r="573" spans="1:7" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A573" s="15" t="s">
         <v>1536</v>
       </c>
@@ -51449,7 +51459,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="15" t="s">
         <v>1537</v>
       </c>
@@ -51466,7 +51476,7 @@
       <c r="F574" s="15"/>
       <c r="G574" s="15"/>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="15" t="s">
         <v>1538</v>
       </c>
@@ -51485,7 +51495,7 @@
       <c r="F575" s="15"/>
       <c r="G575" s="15"/>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="15" t="s">
         <v>1539</v>
       </c>
@@ -51504,7 +51514,7 @@
       <c r="F576" s="15"/>
       <c r="G576" s="15"/>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A577" s="15" t="s">
         <v>1540</v>
       </c>
@@ -51521,7 +51531,7 @@
       <c r="F577" s="15"/>
       <c r="G577" s="15"/>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A578" s="15" t="s">
         <v>1541</v>
       </c>
@@ -51543,7 +51553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A579" s="15" t="s">
         <v>1542</v>
       </c>
@@ -51560,7 +51570,7 @@
       <c r="F579" s="15"/>
       <c r="G579" s="15"/>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A580" s="15" t="s">
         <v>1543</v>
       </c>
@@ -51577,7 +51587,7 @@
       <c r="F580" s="15"/>
       <c r="G580" s="15"/>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A581" s="15" t="s">
         <v>1544</v>
       </c>
@@ -51594,7 +51604,7 @@
       <c r="F581" s="15"/>
       <c r="G581" s="15"/>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A582" s="15" t="s">
         <v>1545</v>
       </c>
@@ -51611,7 +51621,7 @@
       <c r="F582" s="15"/>
       <c r="G582" s="15"/>
     </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A583" s="15" t="s">
         <v>1714</v>
       </c>
@@ -51628,7 +51638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A584" s="15" t="s">
         <v>1774</v>
       </c>
@@ -51645,7 +51655,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A585" s="15" t="s">
         <v>1775</v>
       </c>
@@ -51666,7 +51676,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A586" s="15" t="s">
         <v>1776</v>
       </c>
@@ -51681,7 +51691,7 @@
       </c>
       <c r="E586" s="31"/>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A587" s="15" t="s">
         <v>1777</v>
       </c>
@@ -51696,7 +51706,7 @@
       </c>
       <c r="E587" s="31"/>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A588" s="15" t="s">
         <v>1778</v>
       </c>
@@ -51711,7 +51721,7 @@
       </c>
       <c r="E588" s="31"/>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A589" s="15" t="s">
         <v>1779</v>
       </c>
@@ -51732,7 +51742,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A590" s="15" t="s">
         <v>1780</v>
       </c>
@@ -51747,7 +51757,7 @@
       </c>
       <c r="E590" s="31"/>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A591" s="15" t="s">
         <v>1781</v>
       </c>
@@ -51762,7 +51772,7 @@
       </c>
       <c r="E591" s="31"/>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A592" s="15" t="s">
         <v>1782</v>
       </c>
@@ -51777,7 +51787,7 @@
       </c>
       <c r="E592" s="31"/>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A593" s="15" t="s">
         <v>1783</v>
       </c>
@@ -51798,7 +51808,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A594" s="15" t="s">
         <v>1784</v>
       </c>
@@ -51813,7 +51823,7 @@
       </c>
       <c r="E594" s="31"/>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A595" s="15" t="s">
         <v>1785</v>
       </c>
@@ -51828,7 +51838,7 @@
       </c>
       <c r="E595" s="31"/>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596" s="15" t="s">
         <v>1786</v>
       </c>
@@ -51843,7 +51853,7 @@
       </c>
       <c r="E596" s="31"/>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597" s="15" t="s">
         <v>1787</v>
       </c>
@@ -51864,7 +51874,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A598" s="15" t="s">
         <v>1788</v>
       </c>
@@ -51879,7 +51889,7 @@
       </c>
       <c r="E598" s="31"/>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A599" s="15" t="s">
         <v>1789</v>
       </c>
@@ -51894,7 +51904,7 @@
       </c>
       <c r="E599" s="31"/>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A600" s="15" t="s">
         <v>1790</v>
       </c>
@@ -51909,7 +51919,7 @@
       </c>
       <c r="E600" s="31"/>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A601" s="15" t="s">
         <v>1791</v>
       </c>
@@ -51930,7 +51940,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A602" s="15" t="s">
         <v>1792</v>
       </c>
@@ -51945,7 +51955,7 @@
       </c>
       <c r="E602" s="31"/>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A603" s="15" t="s">
         <v>1793</v>
       </c>
@@ -51960,7 +51970,7 @@
       </c>
       <c r="E603" s="31"/>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A604" s="15" t="s">
         <v>1794</v>
       </c>
@@ -51975,7 +51985,7 @@
       </c>
       <c r="E604" s="31"/>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A605" s="15" t="s">
         <v>1795</v>
       </c>
@@ -51989,7 +51999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A606" s="15" t="s">
         <v>1796</v>
       </c>
@@ -52003,7 +52013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A607" s="15" t="s">
         <v>1797</v>
       </c>
@@ -52017,7 +52027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A608" s="15" t="s">
         <v>1798</v>
       </c>
@@ -52031,7 +52041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A609" s="15" t="s">
         <v>1799</v>
       </c>
@@ -52048,7 +52058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A610" s="15" t="s">
         <v>1800</v>
       </c>
@@ -52062,7 +52072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A611" s="15" t="s">
         <v>1801</v>
       </c>
@@ -52079,7 +52089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A612" s="15" t="s">
         <v>1802</v>
       </c>
@@ -52093,7 +52103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A613" s="15" t="s">
         <v>1803</v>
       </c>
@@ -52107,7 +52117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A614" s="15" t="s">
         <v>1804</v>
       </c>
@@ -52128,7 +52138,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A615" s="15" t="s">
         <v>1805</v>
       </c>
@@ -52143,7 +52153,7 @@
       </c>
       <c r="E615" s="15"/>
     </row>
-    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A616" s="15" t="s">
         <v>1806</v>
       </c>
@@ -52158,7 +52168,7 @@
       </c>
       <c r="E616" s="15"/>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A617" s="15" t="s">
         <v>1807</v>
       </c>
@@ -52175,7 +52185,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A618" s="15" t="s">
         <v>1808</v>
       </c>
@@ -52190,7 +52200,7 @@
       </c>
       <c r="E618" s="15"/>
     </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A619" s="15" t="s">
         <v>1809</v>
       </c>
@@ -52207,7 +52217,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A620" s="15" t="s">
         <v>1810</v>
       </c>
@@ -52222,7 +52232,7 @@
       </c>
       <c r="E620" s="15"/>
     </row>
-    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A621" s="15" t="s">
         <v>1811</v>
       </c>
@@ -52239,7 +52249,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A622" s="15" t="s">
         <v>1812</v>
       </c>
@@ -52254,7 +52264,7 @@
       </c>
       <c r="E622" s="15"/>
     </row>
-    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A623" s="15" t="s">
         <v>1813</v>
       </c>
@@ -52329,7 +52339,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A627" s="15" t="s">
         <v>1817</v>
       </c>
@@ -52344,7 +52354,7 @@
       </c>
       <c r="E627" s="15"/>
     </row>
-    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A628" s="15" t="s">
         <v>1818</v>
       </c>
@@ -52359,7 +52369,7 @@
       </c>
       <c r="E628" s="15"/>
     </row>
-    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A629" s="15" t="s">
         <v>1819</v>
       </c>
@@ -52376,7 +52386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A630" s="15" t="s">
         <v>1820</v>
       </c>
@@ -52390,7 +52400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A631" s="15" t="s">
         <v>1821</v>
       </c>
@@ -52404,7 +52414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A632" s="15" t="s">
         <v>1822</v>
       </c>
@@ -52421,7 +52431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A633" s="15" t="s">
         <v>1823</v>
       </c>
@@ -52435,7 +52445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A634" s="15" t="s">
         <v>1824</v>
       </c>
@@ -52449,7 +52459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A635" s="15" t="s">
         <v>1825</v>
       </c>
@@ -52463,7 +52473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A636" s="15" t="s">
         <v>1826</v>
       </c>
@@ -52477,7 +52487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A637" s="15" t="s">
         <v>1827</v>
       </c>
@@ -52491,7 +52501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A638" s="15" t="s">
         <v>1828</v>
       </c>
@@ -52505,7 +52515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A639" s="15" t="s">
         <v>1895</v>
       </c>
@@ -52526,7 +52536,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A640" s="15" t="s">
         <v>2298</v>
       </c>
@@ -52540,7 +52550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A641" s="15" t="s">
         <v>2299</v>
       </c>
@@ -52557,7 +52567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A642" s="15" t="s">
         <v>2300</v>
       </c>
@@ -52578,7 +52588,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A643" s="15" t="s">
         <v>2301</v>
       </c>
@@ -52595,7 +52605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A644" s="15" t="s">
         <v>2302</v>
       </c>
@@ -52609,7 +52619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A645" s="15" t="s">
         <v>2303</v>
       </c>
@@ -52623,7 +52633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A646" s="15" t="s">
         <v>2304</v>
       </c>
@@ -52637,7 +52647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A647" s="15" t="s">
         <v>2305</v>
       </c>
@@ -52651,7 +52661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A648" s="15" t="s">
         <v>2306</v>
       </c>
@@ -52665,7 +52675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A649" s="15" t="s">
         <v>2307</v>
       </c>
@@ -52679,7 +52689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A650" s="15" t="s">
         <v>2308</v>
       </c>
@@ -52700,7 +52710,7 @@
         <v>The White Warg</v>
       </c>
     </row>
-    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A651" s="15" t="s">
         <v>2309</v>
       </c>
@@ -52721,7 +52731,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A652" s="15" t="s">
         <v>2310</v>
       </c>
@@ -52738,7 +52748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A653" s="15" t="s">
         <v>2311</v>
       </c>
@@ -52752,7 +52762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A654" s="15" t="s">
         <v>2312</v>
       </c>
@@ -52766,7 +52776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A655" s="15" t="s">
         <v>2313</v>
       </c>
@@ -52780,7 +52790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A656" s="15" t="s">
         <v>2314</v>
       </c>
@@ -52794,7 +52804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A657" s="15" t="s">
         <v>2315</v>
       </c>
@@ -52808,7 +52818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A658" s="15" t="s">
         <v>2316</v>
       </c>
@@ -52825,7 +52835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A659" s="15" t="s">
         <v>2317</v>
       </c>
@@ -52839,7 +52849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A660" s="15" t="s">
         <v>2318</v>
       </c>
@@ -52856,7 +52866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A661" s="15" t="s">
         <v>2319</v>
       </c>
@@ -52870,7 +52880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A662" s="15" t="s">
         <v>2320</v>
       </c>
@@ -52891,7 +52901,7 @@
         <v>The White Warg</v>
       </c>
     </row>
-    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A663" s="15" t="s">
         <v>2321</v>
       </c>
@@ -52912,7 +52922,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A664" s="15" t="s">
         <v>2322</v>
       </c>
@@ -52929,7 +52939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A665" s="15" t="s">
         <v>2323</v>
       </c>
@@ -52949,7 +52959,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A666" s="15" t="s">
         <v>2324</v>
       </c>
@@ -52970,7 +52980,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A667" s="15" t="s">
         <v>2325</v>
       </c>
@@ -52991,7 +53001,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A668" s="15" t="s">
         <v>2326</v>
       </c>
@@ -53008,7 +53018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A669" s="15" t="s">
         <v>2327</v>
       </c>
@@ -53022,7 +53032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A670" s="15" t="s">
         <v>2328</v>
       </c>
@@ -53039,7 +53049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A671" s="15" t="s">
         <v>2329</v>
       </c>
@@ -53053,7 +53063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A672" s="15" t="s">
         <v>2330</v>
       </c>
@@ -53070,7 +53080,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A673" s="15" t="s">
         <v>2331</v>
       </c>
@@ -53084,7 +53094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A674" s="15" t="s">
         <v>2332</v>
       </c>
@@ -53105,7 +53115,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A675" s="15" t="s">
         <v>2333</v>
       </c>
@@ -53122,7 +53132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A676" s="15" t="s">
         <v>2334</v>
       </c>
@@ -53136,7 +53146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A677" s="15" t="s">
         <v>2335</v>
       </c>
@@ -53153,7 +53163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A678" s="15" t="s">
         <v>2336</v>
       </c>
@@ -53167,7 +53177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A679" s="15" t="s">
         <v>2337</v>
       </c>
@@ -53184,7 +53194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A680" s="15" t="s">
         <v>2338</v>
       </c>
@@ -53198,7 +53208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A681" s="15" t="s">
         <v>2339</v>
       </c>
@@ -53212,7 +53222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A682" s="15" t="s">
         <v>2340</v>
       </c>
@@ -53226,7 +53236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A683" s="15" t="s">
         <v>2341</v>
       </c>
@@ -53240,7 +53250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A684" s="15" t="s">
         <v>2342</v>
       </c>
@@ -53254,7 +53264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A685" s="15" t="s">
         <v>2343</v>
       </c>
@@ -53268,7 +53278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A686" s="15" t="s">
         <v>2344</v>
       </c>
@@ -53289,7 +53299,7 @@
         <v>Radagast's Sleigh</v>
       </c>
     </row>
-    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A687" s="15" t="s">
         <v>2345</v>
       </c>
@@ -53303,7 +53313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A688" s="15" t="s">
         <v>2346</v>
       </c>
@@ -53317,7 +53327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A689" s="15" t="s">
         <v>2347</v>
       </c>
@@ -53331,7 +53341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A690" s="15" t="s">
         <v>2348</v>
       </c>
@@ -53351,7 +53361,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A691" s="15" t="s">
         <v>2349</v>
       </c>
@@ -53372,7 +53382,7 @@
         <v>Iron Hills Chariot</v>
       </c>
     </row>
-    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A692" s="15" t="s">
         <v>2350</v>
       </c>
@@ -53386,7 +53396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A693" s="15" t="s">
         <v>2351</v>
       </c>
@@ -53400,7 +53410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A694" s="15" t="s">
         <v>2352</v>
       </c>
@@ -53414,7 +53424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A695" s="15" t="s">
         <v>2353</v>
       </c>
@@ -53428,7 +53438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A696" s="15" t="s">
         <v>2354</v>
       </c>
@@ -53445,7 +53455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A697" s="15" t="s">
         <v>2355</v>
       </c>
@@ -53459,7 +53469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A698" s="15" t="s">
         <v>2356</v>
       </c>
@@ -53473,7 +53483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A699" s="15" t="s">
         <v>2357</v>
       </c>
@@ -53487,7 +53497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A700" s="15" t="s">
         <v>2358</v>
       </c>
@@ -53501,7 +53511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A701" s="15" t="s">
         <v>2359</v>
       </c>
@@ -53515,7 +53525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A702" s="15" t="s">
         <v>2360</v>
       </c>
@@ -53529,7 +53539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A703" s="15" t="s">
         <v>2361</v>
       </c>
@@ -53543,7 +53553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A704" s="15" t="s">
         <v>2362</v>
       </c>
@@ -53560,7 +53570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A705" s="15" t="s">
         <v>2363</v>
       </c>
@@ -53574,7 +53584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A706" s="15" t="s">
         <v>2364</v>
       </c>
@@ -53595,7 +53605,7 @@
         <v>Troll Brute</v>
       </c>
     </row>
-    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A707" s="15" t="s">
         <v>2365</v>
       </c>
@@ -53612,7 +53622,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A708" s="15" t="s">
         <v>2366</v>
       </c>
@@ -53629,7 +53639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A709" s="15" t="s">
         <v>2367</v>
       </c>
@@ -53643,7 +53653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A710" s="15" t="s">
         <v>2368</v>
       </c>
@@ -53660,7 +53670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A711" s="15" t="s">
         <v>2369</v>
       </c>
@@ -53683,7 +53693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A712" s="15" t="s">
         <v>2370</v>
       </c>
@@ -53700,7 +53710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A713" s="15" t="s">
         <v>2371</v>
       </c>
@@ -53714,7 +53724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A714" s="15" t="s">
         <v>2372</v>
       </c>
@@ -53728,7 +53738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A715" s="15" t="s">
         <v>2373</v>
       </c>
@@ -53742,7 +53752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A716" s="15" t="s">
         <v>2374</v>
       </c>
@@ -53759,7 +53769,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A717" s="15" t="s">
         <v>2375</v>
       </c>
@@ -53773,7 +53783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A718" s="15" t="s">
         <v>2376</v>
       </c>
@@ -53787,7 +53797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A719" s="15" t="s">
         <v>2377</v>
       </c>
@@ -53804,7 +53814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A720" s="15" t="s">
         <v>2378</v>
       </c>
@@ -53818,7 +53828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A721" s="15" t="s">
         <v>2379</v>
       </c>
@@ -53832,7 +53842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A722" s="15" t="s">
         <v>2380</v>
       </c>
@@ -53846,7 +53856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A723" s="15" t="s">
         <v>2381</v>
       </c>
@@ -53860,7 +53870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A724" s="15" t="s">
         <v>2382</v>
       </c>
@@ -53874,7 +53884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A725" s="15" t="s">
         <v>2383</v>
       </c>
@@ -53888,7 +53898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A726" s="15" t="s">
         <v>2384</v>
       </c>
@@ -53902,7 +53912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A727" s="15" t="s">
         <v>2385</v>
       </c>
@@ -53919,7 +53929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A728" s="15" t="s">
         <v>2386</v>
       </c>
@@ -53933,7 +53943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A729" s="15" t="s">
         <v>2387</v>
       </c>
@@ -53947,7 +53957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A730" s="15" t="s">
         <v>2388</v>
       </c>
@@ -53968,7 +53978,7 @@
         <v>Great Elk</v>
       </c>
     </row>
-    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A731" s="15" t="s">
         <v>2389</v>
       </c>
@@ -53982,7 +53992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A732" s="15" t="s">
         <v>2390</v>
       </c>
@@ -54003,7 +54013,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A733" s="15" t="s">
         <v>2391</v>
       </c>
@@ -54017,7 +54027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A734" s="15" t="s">
         <v>2392</v>
       </c>
@@ -54031,7 +54041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A735" s="15" t="s">
         <v>2393</v>
       </c>
@@ -54048,7 +54058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A736" s="15" t="s">
         <v>2394</v>
       </c>
@@ -54062,7 +54072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A737" s="15" t="s">
         <v>2395</v>
       </c>
@@ -54079,7 +54089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A738" s="15" t="s">
         <v>2396</v>
       </c>
@@ -54093,7 +54103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A739" s="15" t="s">
         <v>2397</v>
       </c>
@@ -54107,7 +54117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A740" s="15" t="s">
         <v>2398</v>
       </c>
@@ -54121,7 +54131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A741" s="15" t="s">
         <v>2399</v>
       </c>
@@ -54135,7 +54145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A742" s="15" t="s">
         <v>2400</v>
       </c>
@@ -54149,7 +54159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A743" s="15" t="s">
         <v>2401</v>
       </c>
@@ -54163,7 +54173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A744" s="15" t="s">
         <v>2402</v>
       </c>
@@ -54180,7 +54190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A745" s="15" t="s">
         <v>2403</v>
       </c>
@@ -54197,7 +54207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A746" s="15" t="s">
         <v>2404</v>
       </c>
@@ -54214,7 +54224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A747" s="15" t="s">
         <v>2405</v>
       </c>
@@ -54231,7 +54241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A748" s="15" t="s">
         <v>2406</v>
       </c>
@@ -54245,7 +54255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A749" s="15" t="s">
         <v>2407</v>
       </c>
@@ -54266,7 +54276,7 @@
         <v>War Boar</v>
       </c>
     </row>
-    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A750" s="15" t="s">
         <v>2408</v>
       </c>
@@ -54287,7 +54297,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A751" s="15" t="s">
         <v>2409</v>
       </c>
@@ -54301,7 +54311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A752" s="15" t="s">
         <v>2410</v>
       </c>
@@ -54315,7 +54325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A753" s="15" t="s">
         <v>2411</v>
       </c>
@@ -54329,7 +54339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A754" s="15" t="s">
         <v>2412</v>
       </c>
@@ -54343,7 +54353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A755" s="15" t="s">
         <v>2413</v>
       </c>
@@ -54360,7 +54370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A756" s="15" t="s">
         <v>2414</v>
       </c>
@@ -54374,7 +54384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A757" s="15" t="s">
         <v>2415</v>
       </c>
@@ -54388,7 +54398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A758" s="15" t="s">
         <v>2416</v>
       </c>
@@ -54409,7 +54419,7 @@
         <v>Great Elk</v>
       </c>
     </row>
-    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A759" s="15" t="s">
         <v>2417</v>
       </c>
@@ -54423,7 +54433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A760" s="15" t="s">
         <v>2418</v>
       </c>
@@ -54444,7 +54454,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A761" s="15" t="s">
         <v>2419</v>
       </c>
@@ -54458,7 +54468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A762" s="15" t="s">
         <v>2420</v>
       </c>
@@ -54472,7 +54482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A763" s="15" t="s">
         <v>2421</v>
       </c>
@@ -54489,7 +54499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A764" s="15" t="s">
         <v>2422</v>
       </c>
@@ -54506,7 +54516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A765" s="15" t="s">
         <v>2423</v>
       </c>
@@ -54520,7 +54530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A766" s="15" t="s">
         <v>2424</v>
       </c>
@@ -54534,7 +54544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A767" s="15" t="s">
         <v>2425</v>
       </c>
@@ -54557,7 +54567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A768" s="15" t="s">
         <v>2426</v>
       </c>
@@ -54574,7 +54584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A769" s="15" t="s">
         <v>2427</v>
       </c>
@@ -54588,7 +54598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A770" s="15" t="s">
         <v>2428</v>
       </c>
@@ -54602,7 +54612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A771" s="15" t="s">
         <v>2429</v>
       </c>
@@ -54625,7 +54635,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A772" s="15" t="s">
         <v>2430</v>
       </c>
@@ -54642,7 +54652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A773" s="15" t="s">
         <v>2431</v>
       </c>
@@ -54665,7 +54675,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A774" s="15" t="s">
         <v>2432</v>
       </c>
@@ -54686,7 +54696,7 @@
         <v>Radagast's Sleigh</v>
       </c>
     </row>
-    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A775" s="15" t="s">
         <v>2536</v>
       </c>
@@ -54701,7 +54711,7 @@
       </c>
       <c r="E775" s="21"/>
     </row>
-    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A776" s="15" t="s">
         <v>2540</v>
       </c>
@@ -54722,7 +54732,7 @@
         <v>Troll Brute</v>
       </c>
     </row>
-    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A777" s="15" t="s">
         <v>2666</v>
       </c>
@@ -54742,7 +54752,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A778" s="15" t="s">
         <v>2667</v>
       </c>
@@ -54762,7 +54772,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A779" s="15" t="s">
         <v>2668</v>
       </c>
@@ -54776,7 +54786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A780" s="15" t="s">
         <v>2669</v>
       </c>
@@ -54790,7 +54800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A781" s="15" t="s">
         <v>2670</v>
       </c>
@@ -54804,7 +54814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A782" s="15" t="s">
         <v>2671</v>
       </c>
@@ -54818,7 +54828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A783" s="15" t="s">
         <v>2672</v>
       </c>
@@ -54832,7 +54842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A784" s="15" t="s">
         <v>2673</v>
       </c>
@@ -54846,7 +54856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" s="15" t="s">
         <v>2674</v>
       </c>
@@ -54860,7 +54870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786" s="15" t="s">
         <v>2675</v>
       </c>
@@ -54877,7 +54887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787" s="15" t="s">
         <v>2676</v>
       </c>
@@ -54891,7 +54901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788" s="15" t="s">
         <v>2677</v>
       </c>
@@ -54905,7 +54915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789" s="15" t="s">
         <v>2678</v>
       </c>
@@ -54919,7 +54929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790" s="15" t="s">
         <v>2679</v>
       </c>
@@ -54936,7 +54946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791" s="15" t="s">
         <v>2680</v>
       </c>
@@ -54950,7 +54960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792" s="15" t="s">
         <v>2681</v>
       </c>
@@ -54964,7 +54974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793" s="15" t="s">
         <v>2682</v>
       </c>
@@ -54978,7 +54988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794" s="15" t="s">
         <v>2683</v>
       </c>
@@ -54992,7 +55002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795" s="15" t="s">
         <v>2684</v>
       </c>
@@ -55006,7 +55016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796" s="15" t="s">
         <v>2685</v>
       </c>
@@ -55020,7 +55030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" s="15" t="s">
         <v>2686</v>
       </c>
@@ -55034,7 +55044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798" s="15" t="s">
         <v>2687</v>
       </c>
@@ -55048,7 +55058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" s="15" t="s">
         <v>2688</v>
       </c>
@@ -55062,7 +55072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800" s="15" t="s">
         <v>2689</v>
       </c>
@@ -55076,7 +55086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A801" s="15" t="s">
         <v>2690</v>
       </c>
@@ -55090,7 +55100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A802" s="15" t="s">
         <v>2691</v>
       </c>
@@ -55107,7 +55117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A803" s="15" t="s">
         <v>2692</v>
       </c>
@@ -55121,7 +55131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A804" s="15" t="s">
         <v>2693</v>
       </c>
@@ -55135,7 +55145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A805" s="15" t="s">
         <v>2694</v>
       </c>
@@ -55149,7 +55159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A806" s="15" t="s">
         <v>2695</v>
       </c>
@@ -55166,7 +55176,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A807" s="15" t="s">
         <v>2696</v>
       </c>
@@ -55183,7 +55193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A808" s="15" t="s">
         <v>2697</v>
       </c>
@@ -55197,7 +55207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A809" s="15" t="s">
         <v>2698</v>
       </c>
@@ -55214,7 +55224,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A810" s="15" t="s">
         <v>2699</v>
       </c>
@@ -55228,7 +55238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A811" s="15" t="s">
         <v>2700</v>
       </c>
@@ -55242,7 +55252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A812" s="15" t="s">
         <v>2701</v>
       </c>
@@ -55259,7 +55269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A813" s="15" t="s">
         <v>2702</v>
       </c>
@@ -55279,7 +55289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A814" s="15" t="s">
         <v>2703</v>
       </c>
@@ -55293,7 +55303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A815" s="15" t="s">
         <v>2704</v>
       </c>
@@ -55307,7 +55317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A816" s="15" t="s">
         <v>2705</v>
       </c>
@@ -55324,7 +55334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A817" s="15" t="s">
         <v>2706</v>
       </c>
@@ -55338,7 +55348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="15" t="s">
         <v>2707</v>
       </c>
@@ -55352,7 +55362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" s="15" t="s">
         <v>2708</v>
       </c>
@@ -55366,7 +55376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" s="15" t="s">
         <v>2709</v>
       </c>
@@ -55383,7 +55393,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821" s="15" t="s">
         <v>2710</v>
       </c>
@@ -55400,7 +55410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A822" s="15" t="s">
         <v>2711</v>
       </c>
@@ -55414,7 +55424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A823" s="15" t="s">
         <v>2712</v>
       </c>
@@ -55431,7 +55441,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A824" s="15" t="s">
         <v>2713</v>
       </c>
@@ -55445,7 +55455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A825" s="15" t="s">
         <v>2714</v>
       </c>
@@ -55462,7 +55472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A826" s="15" t="s">
         <v>2715</v>
       </c>
@@ -55476,7 +55486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A827" s="15" t="s">
         <v>2716</v>
       </c>
@@ -55490,7 +55500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828" s="15" t="s">
         <v>2717</v>
       </c>
@@ -55504,7 +55514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A829" s="15" t="s">
         <v>2718</v>
       </c>
@@ -55521,7 +55531,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A830" s="15" t="s">
         <v>2719</v>
       </c>
@@ -55538,7 +55548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A831" s="15" t="s">
         <v>2720</v>
       </c>
@@ -55552,7 +55562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A832" s="15" t="s">
         <v>2721</v>
       </c>
@@ -55569,7 +55579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A833" s="15" t="s">
         <v>2722</v>
       </c>
@@ -55583,7 +55593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A834" s="15" t="s">
         <v>2723</v>
       </c>
@@ -55597,7 +55607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A835" s="15" t="s">
         <v>2724</v>
       </c>
@@ -55611,7 +55621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A836" s="15" t="s">
         <v>2725</v>
       </c>
@@ -55628,7 +55638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A837" s="15" t="s">
         <v>2726</v>
       </c>
@@ -55642,7 +55652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A838" s="15" t="s">
         <v>2727</v>
       </c>
@@ -55656,7 +55666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A839" s="15" t="s">
         <v>2728</v>
       </c>
@@ -55670,7 +55680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A840" s="15" t="s">
         <v>2729</v>
       </c>
@@ -55687,7 +55697,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A841" s="15" t="s">
         <v>2730</v>
       </c>
@@ -55704,7 +55714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A842" s="15" t="s">
         <v>2731</v>
       </c>
@@ -55718,7 +55728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A843" s="15" t="s">
         <v>2732</v>
       </c>
@@ -55735,7 +55745,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A844" s="15" t="s">
         <v>2802</v>
       </c>
@@ -55755,7 +55765,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A845" s="15" t="s">
         <v>2803</v>
       </c>
@@ -60375,20 +60385,7 @@
       <c r="E1582" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I845" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="[army-of-edoras] rohan-royal-guard"/>
-        <filter val="[defenders-of-helm's-deep] rohan-royal-guard"/>
-        <filter val="[defenders-of-the-pelennor] rohan-royal-guard"/>
-        <filter val="[kingdom-of-rohan] rohan-royal-guard"/>
-        <filter val="[realms-of-men] rohan-royal-guard"/>
-        <filter val="[ride-out] rohan-royal-guard"/>
-        <filter val="[riders-of-theoden] rohan-royal-guard"/>
-        <filter val="[road-to-helm's-deep] rohan-royal-guard"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I845" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1436">
     <sortCondition ref="A1:A1436"/>
   </sortState>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95686D0E-FC9C-443C-B817-A52829595D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A5090-A4AD-4945-91A9-C5CC0E668B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -10234,9 +10234,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L516" sqref="L516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>383</v>
       </c>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>390</v>
       </c>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>417</v>
       </c>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>510</v>
       </c>
@@ -16270,7 +16270,7 @@
       </c>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>760</v>
       </c>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>801</v>
       </c>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>802</v>
       </c>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>804</v>
       </c>
@@ -21136,7 +21136,7 @@
       </c>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>929</v>
       </c>
@@ -21265,7 +21265,7 @@
       </c>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>934</v>
       </c>
@@ -23019,7 +23019,7 @@
       </c>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>1000</v>
       </c>
@@ -23674,7 +23674,7 @@
       </c>
       <c r="O308" s="18"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1026</v>
       </c>
@@ -24415,7 +24415,7 @@
       </c>
       <c r="O325" s="18"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>1044</v>
       </c>
@@ -24677,7 +24677,7 @@
       </c>
       <c r="O331" s="18"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1052</v>
       </c>
@@ -25504,7 +25504,7 @@
       </c>
       <c r="O350" s="18"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1077</v>
       </c>
@@ -27039,7 +27039,7 @@
       </c>
       <c r="O385" s="18"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>1914</v>
       </c>
@@ -30953,7 +30953,7 @@
         <v>3</v>
       </c>
       <c r="L475" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M475" s="18"/>
       <c r="N475" s="18" t="s">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="O496" s="18"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="18" t="s">
         <v>2122</v>
       </c>
@@ -32341,7 +32341,7 @@
       </c>
       <c r="O507" s="18"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="18" t="s">
         <v>2140</v>
       </c>
@@ -32724,7 +32724,7 @@
         <v>1</v>
       </c>
       <c r="L516" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M516" s="18"/>
       <c r="N516" s="18" t="s">
@@ -35723,7 +35723,7 @@
       </c>
       <c r="O585" s="18"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="18" t="s">
         <v>2248</v>
       </c>
@@ -40683,21 +40683,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="13">
+    <filterColumn colId="5">
       <filters>
-        <filter val="[['Bain, Son of Bard', '0:1:2:1'], ['Sigrid', '0:1:2:1'], ['Tilda', '0:1:2:1']]"/>
-        <filter val="[['Corsair Ballista - Siege Veteran', '1:1:1:1']]"/>
-        <filter val="[['Eowyn', '2:2:3:2'], ['Meriadoc Brandybuck', '1:1:2:2']]"/>
-        <filter val="[['Gandalf the White', '3:6:3:3']]"/>
-        <filter val="[['Gondor Battlecry Trebuchet - Siege Veteran', '1:1:1:1']]"/>
-        <filter val="[['Haradrim Commander', '2:1:1:2'], ['War Mumak of Harad', '0:0:0:10']]"/>
-        <filter val="[['Iron Hills Ballista - Siege Veteran', '1:1:1:1']]"/>
-        <filter val="[['Isengard Assault Ballista - Siege Veteran', '1:1:1:1']]"/>
-        <filter val="[['Mumak War Leader', '3:2:2:3'], ['Royal War Mumak', '0:0:0:10']]"/>
-        <filter val="[['Shank', '2:3:1:2'], ['Wrot', '1:1:1:2']]"/>
-        <filter val="[['Treebeard', '3:4:3:4']]"/>
-        <filter val="[['Troll Brute', '0:0:0:4'],['Orc Commander', '1:1:1:2']]"/>
-        <filter val="[['Windlance - Siege Veteran', '1:1:1:1']]"/>
+        <filter val="Siege Engine"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A5090-A4AD-4945-91A9-C5CC0E668B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A544F-94DC-4704-A3A4-27906D18F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10085" uniqueCount="2804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10089" uniqueCount="2805">
   <si>
     <t>name</t>
   </si>
@@ -9483,6 +9483,9 @@
   </si>
   <si>
     <t>OPT0873</t>
+  </si>
+  <si>
+    <t>OPT0874</t>
   </si>
 </sst>
 </file>
@@ -10234,9 +10237,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L516" sqref="L516"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12442,7 +12445,7 @@
       </c>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>417</v>
       </c>
@@ -15486,7 +15489,7 @@
       </c>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>729</v>
       </c>
@@ -16270,7 +16273,7 @@
       </c>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>760</v>
       </c>
@@ -17310,7 +17313,7 @@
       </c>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>801</v>
       </c>
@@ -17957,7 +17960,7 @@
       </c>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>820</v>
       </c>
@@ -18000,7 +18003,7 @@
       </c>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>822</v>
       </c>
@@ -18043,7 +18046,7 @@
       </c>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>823</v>
       </c>
@@ -18086,7 +18089,7 @@
       </c>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>824</v>
       </c>
@@ -18129,7 +18132,7 @@
       </c>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>826</v>
       </c>
@@ -18172,7 +18175,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>827</v>
       </c>
@@ -18215,7 +18218,7 @@
       </c>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>828</v>
       </c>
@@ -18258,7 +18261,7 @@
       </c>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>829</v>
       </c>
@@ -18301,7 +18304,7 @@
       </c>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>831</v>
       </c>
@@ -19308,7 +19311,7 @@
       </c>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>864</v>
       </c>
@@ -23326,7 +23329,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1009</v>
       </c>
@@ -24157,7 +24160,7 @@
       </c>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>1038</v>
       </c>
@@ -26249,7 +26252,7 @@
       </c>
       <c r="O367" s="18"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>1746</v>
       </c>
@@ -26646,7 +26649,7 @@
       </c>
       <c r="O376" s="18"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>1758</v>
       </c>
@@ -30918,7 +30921,7 @@
       </c>
       <c r="O474" s="18"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>2090</v>
       </c>
@@ -32689,7 +32692,7 @@
       </c>
       <c r="O515" s="18"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="18" t="s">
         <v>2153</v>
       </c>
@@ -40683,9 +40686,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="5">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Siege Engine"/>
+        <filter val="Road to Rivendell"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -40704,9 +40707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:I1582"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C853" sqref="C853"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F846" sqref="F846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55774,11 +55777,21 @@
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A846" s="44"/>
-      <c r="B846" s="21"/>
-      <c r="C846" s="21"/>
-      <c r="D846" s="21"/>
-      <c r="E846" s="21"/>
+      <c r="A846" s="15" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B846" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="C846" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="D846" s="21">
+        <v>55</v>
+      </c>
+      <c r="E846" s="21" t="s">
+        <v>1709</v>
+      </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A847" s="44"/>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A544F-94DC-4704-A3A4-27906D18F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D988FDE-AF62-4240-A7B1-658E51326971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10089" uniqueCount="2805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10089" uniqueCount="2806">
   <si>
     <t>name</t>
   </si>
@@ -9486,6 +9486,9 @@
   </si>
   <si>
     <t>OPT0874</t>
+  </si>
+  <si>
+    <t>['Frodo Baggins']</t>
   </si>
 </sst>
 </file>
@@ -40707,7 +40710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:I1582"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F846" sqref="F846"/>
     </sheetView>
@@ -63733,9 +63736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C547"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65271,7 +65274,7 @@
         <v>1719</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>61</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D988FDE-AF62-4240-A7B1-658E51326971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB627F1-2142-462B-A344-B4C35E85277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10089" uniqueCount="2806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10085" uniqueCount="2804">
   <si>
     <t>name</t>
   </si>
@@ -9483,12 +9483,6 @@
   </si>
   <si>
     <t>OPT0873</t>
-  </si>
-  <si>
-    <t>OPT0874</t>
-  </si>
-  <si>
-    <t>['Frodo Baggins']</t>
   </si>
 </sst>
 </file>
@@ -40708,11 +40702,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:I1582"/>
+  <dimension ref="A1:I1581"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F846" sqref="F846"/>
+      <selection pane="bottomLeft" activeCell="B845" sqref="B845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55780,21 +55774,11 @@
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A846" s="15" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B846" s="18" t="s">
-        <v>831</v>
-      </c>
-      <c r="C846" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="D846" s="21">
-        <v>55</v>
-      </c>
-      <c r="E846" s="21" t="s">
-        <v>1709</v>
-      </c>
+      <c r="A846" s="44"/>
+      <c r="B846" s="21"/>
+      <c r="C846" s="21"/>
+      <c r="D846" s="21"/>
+      <c r="E846" s="21"/>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A847" s="44"/>
@@ -55868,14 +55852,14 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A857" s="44"/>
-      <c r="B857" s="21"/>
+      <c r="B857" s="44"/>
       <c r="C857" s="21"/>
       <c r="D857" s="21"/>
       <c r="E857" s="21"/>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A858" s="44"/>
-      <c r="B858" s="44"/>
+      <c r="B858" s="21"/>
       <c r="C858" s="21"/>
       <c r="D858" s="21"/>
       <c r="E858" s="21"/>
@@ -55924,14 +55908,14 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A865" s="44"/>
-      <c r="B865" s="21"/>
+      <c r="B865" s="44"/>
       <c r="C865" s="21"/>
       <c r="D865" s="21"/>
       <c r="E865" s="21"/>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A866" s="44"/>
-      <c r="B866" s="44"/>
+      <c r="B866" s="21"/>
       <c r="C866" s="21"/>
       <c r="D866" s="21"/>
       <c r="E866" s="21"/>
@@ -55966,14 +55950,14 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A871" s="44"/>
-      <c r="B871" s="21"/>
+      <c r="B871" s="44"/>
       <c r="C871" s="21"/>
       <c r="D871" s="21"/>
       <c r="E871" s="21"/>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A872" s="44"/>
-      <c r="B872" s="44"/>
+      <c r="B872" s="21"/>
       <c r="C872" s="21"/>
       <c r="D872" s="21"/>
       <c r="E872" s="21"/>
@@ -56099,14 +56083,14 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A890" s="44"/>
-      <c r="B890" s="21"/>
+      <c r="B890" s="44"/>
       <c r="C890" s="21"/>
       <c r="D890" s="21"/>
       <c r="E890" s="21"/>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A891" s="44"/>
-      <c r="B891" s="44"/>
+      <c r="B891" s="21"/>
       <c r="C891" s="21"/>
       <c r="D891" s="21"/>
       <c r="E891" s="21"/>
@@ -56127,14 +56111,14 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A894" s="44"/>
-      <c r="B894" s="21"/>
+      <c r="B894" s="44"/>
       <c r="C894" s="21"/>
       <c r="D894" s="21"/>
       <c r="E894" s="21"/>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A895" s="44"/>
-      <c r="B895" s="44"/>
+      <c r="B895" s="21"/>
       <c r="C895" s="21"/>
       <c r="D895" s="21"/>
       <c r="E895" s="21"/>
@@ -56253,14 +56237,14 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A912" s="44"/>
-      <c r="B912" s="21"/>
+      <c r="B912" s="44"/>
       <c r="C912" s="21"/>
       <c r="D912" s="21"/>
       <c r="E912" s="21"/>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A913" s="44"/>
-      <c r="B913" s="44"/>
+      <c r="B913" s="21"/>
       <c r="C913" s="21"/>
       <c r="D913" s="21"/>
       <c r="E913" s="21"/>
@@ -56281,14 +56265,14 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A916" s="44"/>
-      <c r="B916" s="21"/>
+      <c r="B916" s="44"/>
       <c r="C916" s="21"/>
       <c r="D916" s="21"/>
       <c r="E916" s="21"/>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A917" s="44"/>
-      <c r="B917" s="44"/>
+      <c r="B917" s="21"/>
       <c r="C917" s="21"/>
       <c r="D917" s="21"/>
       <c r="E917" s="21"/>
@@ -56309,14 +56293,14 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A920" s="44"/>
-      <c r="B920" s="21"/>
+      <c r="B920" s="44"/>
       <c r="C920" s="21"/>
       <c r="D920" s="21"/>
       <c r="E920" s="21"/>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A921" s="44"/>
-      <c r="B921" s="44"/>
+      <c r="B921" s="21"/>
       <c r="C921" s="21"/>
       <c r="D921" s="21"/>
       <c r="E921" s="21"/>
@@ -56386,14 +56370,14 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A931" s="44"/>
-      <c r="B931" s="21"/>
+      <c r="B931" s="44"/>
       <c r="C931" s="21"/>
       <c r="D931" s="21"/>
       <c r="E931" s="21"/>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A932" s="44"/>
-      <c r="B932" s="44"/>
+      <c r="B932" s="21"/>
       <c r="C932" s="21"/>
       <c r="D932" s="21"/>
       <c r="E932" s="21"/>
@@ -56428,21 +56412,21 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A937" s="44"/>
-      <c r="B937" s="21"/>
+      <c r="B937" s="44"/>
       <c r="C937" s="21"/>
       <c r="D937" s="21"/>
       <c r="E937" s="21"/>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A938" s="44"/>
-      <c r="B938" s="44"/>
+      <c r="B938" s="21"/>
       <c r="C938" s="21"/>
       <c r="D938" s="21"/>
       <c r="E938" s="21"/>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A939" s="44"/>
-      <c r="B939" s="21"/>
+      <c r="B939" s="44"/>
       <c r="C939" s="21"/>
       <c r="D939" s="21"/>
       <c r="E939" s="21"/>
@@ -56456,7 +56440,7 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A941" s="44"/>
-      <c r="B941" s="44"/>
+      <c r="B941" s="21"/>
       <c r="C941" s="21"/>
       <c r="D941" s="21"/>
       <c r="E941" s="21"/>
@@ -56540,14 +56524,14 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A953" s="44"/>
-      <c r="B953" s="21"/>
+      <c r="B953" s="44"/>
       <c r="C953" s="21"/>
       <c r="D953" s="21"/>
       <c r="E953" s="21"/>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A954" s="44"/>
-      <c r="B954" s="44"/>
+      <c r="B954" s="21"/>
       <c r="C954" s="21"/>
       <c r="D954" s="21"/>
       <c r="E954" s="21"/>
@@ -56617,21 +56601,21 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A964" s="44"/>
-      <c r="B964" s="21"/>
+      <c r="B964" s="44"/>
       <c r="C964" s="21"/>
       <c r="D964" s="21"/>
       <c r="E964" s="21"/>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A965" s="44"/>
-      <c r="B965" s="44"/>
+      <c r="B965" s="21"/>
       <c r="C965" s="21"/>
       <c r="D965" s="21"/>
       <c r="E965" s="21"/>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A966" s="44"/>
-      <c r="B966" s="21"/>
+      <c r="B966" s="44"/>
       <c r="C966" s="21"/>
       <c r="D966" s="21"/>
       <c r="E966" s="21"/>
@@ -56645,7 +56629,7 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A968" s="44"/>
-      <c r="B968" s="44"/>
+      <c r="B968" s="21"/>
       <c r="C968" s="21"/>
       <c r="D968" s="21"/>
       <c r="E968" s="21"/>
@@ -56953,14 +56937,14 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1012" s="44"/>
-      <c r="B1012" s="21"/>
+      <c r="B1012" s="44"/>
       <c r="C1012" s="21"/>
       <c r="D1012" s="21"/>
       <c r="E1012" s="21"/>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1013" s="44"/>
-      <c r="B1013" s="44"/>
+      <c r="B1013" s="21"/>
       <c r="C1013" s="21"/>
       <c r="D1013" s="21"/>
       <c r="E1013" s="21"/>
@@ -56988,14 +56972,14 @@
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1017" s="44"/>
-      <c r="B1017" s="21"/>
+      <c r="B1017" s="44"/>
       <c r="C1017" s="21"/>
       <c r="D1017" s="21"/>
       <c r="E1017" s="21"/>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1018" s="44"/>
-      <c r="B1018" s="44"/>
+      <c r="B1018" s="21"/>
       <c r="C1018" s="21"/>
       <c r="D1018" s="21"/>
       <c r="E1018" s="21"/>
@@ -57023,14 +57007,14 @@
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1022" s="44"/>
-      <c r="B1022" s="21"/>
+      <c r="B1022" s="44"/>
       <c r="C1022" s="21"/>
       <c r="D1022" s="21"/>
       <c r="E1022" s="21"/>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1023" s="44"/>
-      <c r="B1023" s="44"/>
+      <c r="B1023" s="21"/>
       <c r="C1023" s="21"/>
       <c r="D1023" s="21"/>
       <c r="E1023" s="21"/>
@@ -57058,14 +57042,14 @@
     </row>
     <row r="1027" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1027" s="44"/>
-      <c r="B1027" s="21"/>
+      <c r="B1027" s="44"/>
       <c r="C1027" s="21"/>
       <c r="D1027" s="21"/>
       <c r="E1027" s="21"/>
     </row>
     <row r="1028" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1028" s="44"/>
-      <c r="B1028" s="44"/>
+      <c r="B1028" s="21"/>
       <c r="C1028" s="21"/>
       <c r="D1028" s="21"/>
       <c r="E1028" s="21"/>
@@ -57079,28 +57063,28 @@
     </row>
     <row r="1030" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1030" s="44"/>
-      <c r="B1030" s="21"/>
+      <c r="B1030" s="44"/>
       <c r="C1030" s="21"/>
       <c r="D1030" s="21"/>
       <c r="E1030" s="21"/>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1031" s="44"/>
-      <c r="B1031" s="44"/>
+      <c r="B1031" s="21"/>
       <c r="C1031" s="21"/>
       <c r="D1031" s="21"/>
       <c r="E1031" s="21"/>
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1032" s="44"/>
-      <c r="B1032" s="21"/>
+      <c r="B1032" s="44"/>
       <c r="C1032" s="21"/>
       <c r="D1032" s="21"/>
       <c r="E1032" s="21"/>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1033" s="44"/>
-      <c r="B1033" s="44"/>
+      <c r="B1033" s="21"/>
       <c r="C1033" s="21"/>
       <c r="D1033" s="21"/>
       <c r="E1033" s="21"/>
@@ -57191,14 +57175,14 @@
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1046" s="44"/>
-      <c r="B1046" s="21"/>
+      <c r="B1046" s="44"/>
       <c r="C1046" s="21"/>
       <c r="D1046" s="21"/>
       <c r="E1046" s="21"/>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1047" s="44"/>
-      <c r="B1047" s="44"/>
+      <c r="B1047" s="21"/>
       <c r="C1047" s="21"/>
       <c r="D1047" s="21"/>
       <c r="E1047" s="21"/>
@@ -57240,7 +57224,7 @@
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1053" s="44"/>
-      <c r="B1053" s="21"/>
+      <c r="B1053" s="44"/>
       <c r="C1053" s="21"/>
       <c r="D1053" s="21"/>
       <c r="E1053" s="21"/>
@@ -57254,7 +57238,7 @@
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1055" s="44"/>
-      <c r="B1055" s="44"/>
+      <c r="B1055" s="21"/>
       <c r="C1055" s="21"/>
       <c r="D1055" s="21"/>
       <c r="E1055" s="21"/>
@@ -57562,17 +57546,15 @@
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1099" s="44"/>
-      <c r="B1099" s="21"/>
+      <c r="B1099" s="44"/>
       <c r="C1099" s="21"/>
       <c r="D1099" s="21"/>
       <c r="E1099" s="21"/>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1100" s="44"/>
-      <c r="B1100" s="44"/>
       <c r="C1100" s="21"/>
       <c r="D1100" s="21"/>
-      <c r="E1100" s="21"/>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1101" s="44"/>
@@ -57591,20 +57573,21 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1104" s="44"/>
+      <c r="B1104" s="44"/>
       <c r="C1104" s="21"/>
       <c r="D1104" s="21"/>
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1105" s="44"/>
-      <c r="B1105" s="44"/>
+      <c r="B1105" s="21"/>
       <c r="C1105" s="21"/>
       <c r="D1105" s="21"/>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1106" s="44"/>
-      <c r="B1106" s="21"/>
       <c r="C1106" s="21"/>
       <c r="D1106" s="21"/>
+      <c r="E1106" s="21"/>
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1107" s="44"/>
@@ -57616,12 +57599,12 @@
       <c r="A1108" s="44"/>
       <c r="C1108" s="21"/>
       <c r="D1108" s="21"/>
-      <c r="E1108" s="21"/>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1109" s="44"/>
       <c r="C1109" s="21"/>
       <c r="D1109" s="21"/>
+      <c r="E1109" s="21"/>
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1110" s="44"/>
@@ -57633,7 +57616,6 @@
       <c r="A1111" s="44"/>
       <c r="C1111" s="21"/>
       <c r="D1111" s="21"/>
-      <c r="E1111" s="21"/>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1112" s="44"/>
@@ -57744,6 +57726,7 @@
       <c r="A1133" s="44"/>
       <c r="C1133" s="21"/>
       <c r="D1133" s="21"/>
+      <c r="E1133" s="21"/>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1134" s="44"/>
@@ -57755,18 +57738,17 @@
       <c r="A1135" s="44"/>
       <c r="C1135" s="21"/>
       <c r="D1135" s="21"/>
-      <c r="E1135" s="21"/>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1136" s="44"/>
       <c r="C1136" s="21"/>
       <c r="D1136" s="21"/>
+      <c r="E1136" s="21"/>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1137" s="44"/>
       <c r="C1137" s="21"/>
       <c r="D1137" s="21"/>
-      <c r="E1137" s="21"/>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1138" s="44"/>
@@ -57777,6 +57759,7 @@
       <c r="A1139" s="44"/>
       <c r="C1139" s="21"/>
       <c r="D1139" s="21"/>
+      <c r="E1139" s="21"/>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1140" s="44"/>
@@ -57794,7 +57777,6 @@
       <c r="A1142" s="44"/>
       <c r="C1142" s="21"/>
       <c r="D1142" s="21"/>
-      <c r="E1142" s="21"/>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1143" s="44"/>
@@ -57843,97 +57825,97 @@
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1152" s="44"/>
+      <c r="B1152" s="21"/>
       <c r="C1152" s="21"/>
       <c r="D1152" s="21"/>
-    </row>
-    <row r="1153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1152" s="21"/>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1153" s="44"/>
       <c r="B1153" s="21"/>
       <c r="C1153" s="21"/>
       <c r="D1153" s="21"/>
-      <c r="E1153" s="21"/>
-    </row>
-    <row r="1154" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1154" s="44"/>
       <c r="B1154" s="21"/>
       <c r="C1154" s="21"/>
       <c r="D1154" s="21"/>
     </row>
-    <row r="1155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1155" s="44"/>
       <c r="B1155" s="21"/>
       <c r="C1155" s="21"/>
       <c r="D1155" s="21"/>
     </row>
-    <row r="1156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1156" s="44"/>
       <c r="B1156" s="21"/>
       <c r="C1156" s="21"/>
       <c r="D1156" s="21"/>
     </row>
-    <row r="1157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1157" s="44"/>
       <c r="B1157" s="21"/>
       <c r="C1157" s="21"/>
       <c r="D1157" s="21"/>
     </row>
-    <row r="1158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1158" s="44"/>
       <c r="B1158" s="21"/>
       <c r="C1158" s="21"/>
       <c r="D1158" s="21"/>
     </row>
-    <row r="1159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1159" s="44"/>
       <c r="B1159" s="21"/>
       <c r="C1159" s="21"/>
       <c r="D1159" s="21"/>
     </row>
-    <row r="1160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1160" s="44"/>
       <c r="B1160" s="21"/>
       <c r="C1160" s="21"/>
       <c r="D1160" s="21"/>
     </row>
-    <row r="1161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1161" s="44"/>
       <c r="B1161" s="21"/>
       <c r="C1161" s="21"/>
       <c r="D1161" s="21"/>
     </row>
-    <row r="1162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1162" s="44"/>
       <c r="B1162" s="21"/>
       <c r="C1162" s="21"/>
       <c r="D1162" s="21"/>
     </row>
-    <row r="1163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1163" s="44"/>
-      <c r="B1163" s="21"/>
       <c r="C1163" s="21"/>
       <c r="D1163" s="21"/>
     </row>
-    <row r="1164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1164" s="44"/>
       <c r="C1164" s="21"/>
       <c r="D1164" s="21"/>
     </row>
-    <row r="1165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1165" s="44"/>
       <c r="C1165" s="21"/>
       <c r="D1165" s="21"/>
     </row>
-    <row r="1166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1166" s="44"/>
       <c r="C1166" s="21"/>
       <c r="D1166" s="21"/>
     </row>
-    <row r="1167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1167" s="44"/>
       <c r="C1167" s="21"/>
       <c r="D1167" s="21"/>
     </row>
-    <row r="1168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1168" s="44"/>
       <c r="C1168" s="21"/>
       <c r="D1168" s="21"/>
@@ -57962,6 +57944,7 @@
       <c r="A1173" s="44"/>
       <c r="C1173" s="21"/>
       <c r="D1173" s="21"/>
+      <c r="E1173" s="21"/>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1174" s="44"/>
@@ -57973,7 +57956,6 @@
       <c r="A1175" s="44"/>
       <c r="C1175" s="21"/>
       <c r="D1175" s="21"/>
-      <c r="E1175" s="21"/>
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1176" s="44"/>
@@ -58024,6 +58006,7 @@
       <c r="A1185" s="44"/>
       <c r="C1185" s="21"/>
       <c r="D1185" s="21"/>
+      <c r="E1185" s="21"/>
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1186" s="44"/>
@@ -58035,7 +58018,6 @@
       <c r="A1187" s="44"/>
       <c r="C1187" s="21"/>
       <c r="D1187" s="21"/>
-      <c r="E1187" s="21"/>
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1188" s="44"/>
@@ -58044,15 +58026,15 @@
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1189" s="44"/>
+      <c r="B1189" s="21"/>
       <c r="C1189" s="21"/>
       <c r="D1189" s="21"/>
+      <c r="E1189" s="21"/>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1190" s="44"/>
-      <c r="B1190" s="21"/>
       <c r="C1190" s="21"/>
       <c r="D1190" s="21"/>
-      <c r="E1190" s="21"/>
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1191" s="44"/>
@@ -58078,12 +58060,12 @@
       <c r="A1195" s="44"/>
       <c r="C1195" s="21"/>
       <c r="D1195" s="21"/>
+      <c r="E1195" s="21"/>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1196" s="44"/>
       <c r="C1196" s="21"/>
       <c r="D1196" s="21"/>
-      <c r="E1196" s="21"/>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1197" s="44"/>
@@ -58094,12 +58076,12 @@
       <c r="A1198" s="44"/>
       <c r="C1198" s="21"/>
       <c r="D1198" s="21"/>
+      <c r="E1198" s="21"/>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1199" s="44"/>
       <c r="C1199" s="21"/>
       <c r="D1199" s="21"/>
-      <c r="E1199" s="21"/>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1200" s="44"/>
@@ -58130,12 +58112,12 @@
       <c r="A1205" s="44"/>
       <c r="C1205" s="21"/>
       <c r="D1205" s="21"/>
+      <c r="E1205" s="21"/>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1206" s="44"/>
       <c r="C1206" s="21"/>
       <c r="D1206" s="21"/>
-      <c r="E1206" s="21"/>
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1207" s="44"/>
@@ -58219,12 +58201,13 @@
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1223" s="44"/>
+      <c r="B1223" s="44"/>
       <c r="C1223" s="21"/>
       <c r="D1223" s="21"/>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1224" s="44"/>
-      <c r="B1224" s="44"/>
+      <c r="B1224" s="21"/>
       <c r="C1224" s="21"/>
       <c r="D1224" s="21"/>
     </row>
@@ -58244,12 +58227,11 @@
       <c r="A1227" s="44"/>
       <c r="B1227" s="21"/>
       <c r="C1227" s="21"/>
-      <c r="D1227" s="21"/>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1228" s="44"/>
-      <c r="B1228" s="21"/>
       <c r="C1228" s="21"/>
+      <c r="D1228" s="21"/>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1229" s="44"/>
@@ -58304,11 +58286,11 @@
     <row r="1239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1239" s="44"/>
       <c r="C1239" s="21"/>
-      <c r="D1239" s="21"/>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1240" s="44"/>
       <c r="C1240" s="21"/>
+      <c r="D1240" s="21"/>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1241" s="44"/>
@@ -58317,12 +58299,12 @@
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1242" s="44"/>
+      <c r="B1242" s="21"/>
       <c r="C1242" s="21"/>
       <c r="D1242" s="21"/>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1243" s="44"/>
-      <c r="B1243" s="21"/>
       <c r="C1243" s="21"/>
       <c r="D1243" s="21"/>
     </row>
@@ -58354,11 +58336,11 @@
     <row r="1249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1249" s="44"/>
       <c r="C1249" s="21"/>
-      <c r="D1249" s="21"/>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1250" s="44"/>
       <c r="C1250" s="21"/>
+      <c r="D1250" s="21"/>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1251" s="44"/>
@@ -58368,7 +58350,6 @@
     <row r="1252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1252" s="44"/>
       <c r="C1252" s="21"/>
-      <c r="D1252" s="21"/>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1253" s="44"/>
@@ -58405,6 +58386,7 @@
     <row r="1261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1261" s="44"/>
       <c r="C1261" s="21"/>
+      <c r="D1261" s="21"/>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1262" s="44"/>
@@ -58419,17 +58401,17 @@
     <row r="1264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1264" s="44"/>
       <c r="C1264" s="21"/>
-      <c r="D1264" s="21"/>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1265" s="44"/>
-      <c r="C1265" s="21"/>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1266" s="44"/>
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1267" s="44"/>
+      <c r="C1267" s="21"/>
+      <c r="D1267" s="21"/>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1268" s="44"/>
@@ -58439,7 +58421,6 @@
     <row r="1269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1269" s="44"/>
       <c r="C1269" s="21"/>
-      <c r="D1269" s="21"/>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1270" s="44"/>
@@ -58456,6 +58437,7 @@
     <row r="1273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1273" s="44"/>
       <c r="C1273" s="21"/>
+      <c r="D1273" s="21"/>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1274" s="44"/>
@@ -58470,7 +58452,6 @@
     <row r="1276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1276" s="44"/>
       <c r="C1276" s="21"/>
-      <c r="D1276" s="21"/>
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1277" s="44"/>
@@ -58479,6 +58460,7 @@
     <row r="1278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1278" s="44"/>
       <c r="C1278" s="21"/>
+      <c r="D1278" s="21"/>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1279" s="44"/>
@@ -58502,8 +58484,10 @@
     </row>
     <row r="1283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1283" s="44"/>
+      <c r="B1283" s="21"/>
       <c r="C1283" s="21"/>
       <c r="D1283" s="21"/>
+      <c r="E1283" s="21"/>
     </row>
     <row r="1284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1284" s="44"/>
@@ -58535,17 +58519,15 @@
     </row>
     <row r="1288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1288" s="44"/>
-      <c r="B1288" s="21"/>
+      <c r="B1288" s="44"/>
       <c r="C1288" s="21"/>
       <c r="D1288" s="21"/>
       <c r="E1288" s="21"/>
     </row>
     <row r="1289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1289" s="44"/>
-      <c r="B1289" s="44"/>
       <c r="C1289" s="21"/>
       <c r="D1289" s="21"/>
-      <c r="E1289" s="21"/>
     </row>
     <row r="1290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1290" s="44"/>
@@ -58611,6 +58593,7 @@
       <c r="A1302" s="44"/>
       <c r="C1302" s="21"/>
       <c r="D1302" s="21"/>
+      <c r="E1302" s="21"/>
     </row>
     <row r="1303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1303" s="44"/>
@@ -58622,7 +58605,6 @@
       <c r="A1304" s="44"/>
       <c r="C1304" s="21"/>
       <c r="D1304" s="21"/>
-      <c r="E1304" s="21"/>
     </row>
     <row r="1305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1305" s="44"/>
@@ -58671,6 +58653,7 @@
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1314" s="44"/>
+      <c r="B1314" s="21"/>
       <c r="C1314" s="21"/>
       <c r="D1314" s="21"/>
     </row>
@@ -58730,7 +58713,6 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1324" s="44"/>
-      <c r="B1324" s="21"/>
       <c r="C1324" s="21"/>
       <c r="D1324" s="21"/>
     </row>
@@ -58757,11 +58739,11 @@
     <row r="1329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1329" s="44"/>
       <c r="C1329" s="21"/>
-      <c r="D1329" s="21"/>
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1330" s="44"/>
       <c r="C1330" s="21"/>
+      <c r="D1330" s="21"/>
     </row>
     <row r="1331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1331" s="44"/>
@@ -58776,11 +58758,11 @@
     <row r="1333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1333" s="44"/>
       <c r="C1333" s="21"/>
-      <c r="D1333" s="21"/>
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1334" s="44"/>
       <c r="C1334" s="21"/>
+      <c r="D1334" s="21"/>
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1335" s="44"/>
@@ -58790,7 +58772,6 @@
     <row r="1336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1336" s="44"/>
       <c r="C1336" s="21"/>
-      <c r="D1336" s="21"/>
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1337" s="44"/>
@@ -58818,7 +58799,10 @@
     </row>
     <row r="1343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1343" s="44"/>
+      <c r="B1343" s="21"/>
       <c r="C1343" s="21"/>
+      <c r="D1343" s="21"/>
+      <c r="E1343" s="21"/>
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1344" s="44"/>
@@ -58878,14 +58862,14 @@
     </row>
     <row r="1352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1352" s="44"/>
-      <c r="B1352" s="21"/>
+      <c r="B1352" s="44"/>
       <c r="C1352" s="21"/>
       <c r="D1352" s="21"/>
       <c r="E1352" s="21"/>
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1353" s="44"/>
-      <c r="B1353" s="44"/>
+      <c r="B1353" s="21"/>
       <c r="C1353" s="21"/>
       <c r="D1353" s="21"/>
       <c r="E1353" s="21"/>
@@ -58920,14 +58904,14 @@
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1358" s="44"/>
-      <c r="B1358" s="21"/>
+      <c r="B1358" s="44"/>
       <c r="C1358" s="21"/>
       <c r="D1358" s="21"/>
       <c r="E1358" s="21"/>
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1359" s="44"/>
-      <c r="B1359" s="44"/>
+      <c r="B1359" s="21"/>
       <c r="C1359" s="21"/>
       <c r="D1359" s="21"/>
       <c r="E1359" s="21"/>
@@ -58955,14 +58939,14 @@
     </row>
     <row r="1363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1363" s="44"/>
-      <c r="B1363" s="21"/>
+      <c r="B1363" s="44"/>
       <c r="C1363" s="21"/>
       <c r="D1363" s="21"/>
       <c r="E1363" s="21"/>
     </row>
     <row r="1364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1364" s="44"/>
-      <c r="B1364" s="44"/>
+      <c r="B1364" s="21"/>
       <c r="C1364" s="21"/>
       <c r="D1364" s="21"/>
       <c r="E1364" s="21"/>
@@ -59011,14 +58995,14 @@
     </row>
     <row r="1371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1371" s="44"/>
-      <c r="B1371" s="21"/>
+      <c r="B1371" s="44"/>
       <c r="C1371" s="21"/>
       <c r="D1371" s="21"/>
       <c r="E1371" s="21"/>
     </row>
     <row r="1372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1372" s="44"/>
-      <c r="B1372" s="44"/>
+      <c r="B1372" s="21"/>
       <c r="C1372" s="21"/>
       <c r="D1372" s="21"/>
       <c r="E1372" s="21"/>
@@ -59053,14 +59037,14 @@
     </row>
     <row r="1377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1377" s="44"/>
-      <c r="B1377" s="21"/>
+      <c r="B1377" s="44"/>
       <c r="C1377" s="21"/>
       <c r="D1377" s="21"/>
       <c r="E1377" s="21"/>
     </row>
     <row r="1378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1378" s="44"/>
-      <c r="B1378" s="44"/>
+      <c r="B1378" s="21"/>
       <c r="C1378" s="21"/>
       <c r="D1378" s="21"/>
       <c r="E1378" s="21"/>
@@ -59088,7 +59072,7 @@
     </row>
     <row r="1382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1382" s="44"/>
-      <c r="B1382" s="21"/>
+      <c r="B1382" s="44"/>
       <c r="C1382" s="21"/>
       <c r="D1382" s="21"/>
       <c r="E1382" s="21"/>
@@ -59102,7 +59086,7 @@
     </row>
     <row r="1384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1384" s="44"/>
-      <c r="B1384" s="44"/>
+      <c r="B1384" s="21"/>
       <c r="C1384" s="21"/>
       <c r="D1384" s="21"/>
       <c r="E1384" s="21"/>
@@ -59123,7 +59107,7 @@
     </row>
     <row r="1387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1387" s="44"/>
-      <c r="B1387" s="21"/>
+      <c r="B1387" s="44"/>
       <c r="C1387" s="21"/>
       <c r="D1387" s="21"/>
       <c r="E1387" s="21"/>
@@ -59137,31 +59121,31 @@
     </row>
     <row r="1389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1389" s="44"/>
-      <c r="B1389" s="44"/>
       <c r="C1389" s="21"/>
       <c r="D1389" s="21"/>
-      <c r="E1389" s="21"/>
     </row>
     <row r="1390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1390" s="44"/>
+      <c r="B1390" s="21"/>
       <c r="C1390" s="21"/>
       <c r="D1390" s="21"/>
+      <c r="E1390" s="21"/>
     </row>
     <row r="1391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1391" s="44"/>
-      <c r="B1391" s="21"/>
       <c r="C1391" s="21"/>
-      <c r="D1391" s="21"/>
-      <c r="E1391" s="21"/>
     </row>
     <row r="1392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1392" s="44"/>
       <c r="C1392" s="21"/>
+      <c r="D1392" s="21"/>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1393" s="44"/>
+      <c r="B1393" s="21"/>
       <c r="C1393" s="21"/>
       <c r="D1393" s="21"/>
+      <c r="E1393" s="21"/>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1394" s="44"/>
@@ -59221,7 +59205,7 @@
     </row>
     <row r="1402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1402" s="44"/>
-      <c r="B1402" s="21"/>
+      <c r="B1402" s="44"/>
       <c r="C1402" s="21"/>
       <c r="D1402" s="21"/>
       <c r="E1402" s="21"/>
@@ -59382,10 +59366,9 @@
     </row>
     <row r="1425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1425" s="44"/>
-      <c r="B1425" s="44"/>
+      <c r="B1425" s="21"/>
       <c r="C1425" s="21"/>
       <c r="D1425" s="21"/>
-      <c r="E1425" s="21"/>
     </row>
     <row r="1426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1426" s="44"/>
@@ -59419,7 +59402,6 @@
     </row>
     <row r="1431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1431" s="44"/>
-      <c r="B1431" s="21"/>
       <c r="C1431" s="21"/>
       <c r="D1431" s="21"/>
     </row>
@@ -59430,15 +59412,14 @@
     </row>
     <row r="1433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1433" s="44"/>
+      <c r="B1433" s="44"/>
       <c r="C1433" s="21"/>
       <c r="D1433" s="21"/>
+      <c r="E1433" s="21"/>
     </row>
     <row r="1434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1434" s="44"/>
-      <c r="B1434" s="44"/>
-      <c r="C1434" s="21"/>
-      <c r="D1434" s="21"/>
-      <c r="E1434" s="21"/>
+      <c r="B1434" s="21"/>
     </row>
     <row r="1435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1435" s="44"/>
@@ -59447,10 +59428,11 @@
     <row r="1436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1436" s="44"/>
       <c r="B1436" s="21"/>
+      <c r="C1436" s="21"/>
+      <c r="D1436" s="21"/>
     </row>
     <row r="1437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1437" s="44"/>
-      <c r="B1437" s="21"/>
       <c r="C1437" s="21"/>
       <c r="D1437" s="21"/>
     </row>
@@ -59466,8 +59448,10 @@
     </row>
     <row r="1440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1440" s="44"/>
+      <c r="B1440" s="21"/>
       <c r="C1440" s="21"/>
       <c r="D1440" s="21"/>
+      <c r="E1440" s="21"/>
     </row>
     <row r="1441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1441" s="44"/>
@@ -59478,10 +59462,8 @@
     </row>
     <row r="1442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1442" s="44"/>
-      <c r="B1442" s="21"/>
       <c r="C1442" s="21"/>
       <c r="D1442" s="21"/>
-      <c r="E1442" s="21"/>
     </row>
     <row r="1443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1443" s="44"/>
@@ -59496,11 +59478,11 @@
     <row r="1445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1445" s="44"/>
       <c r="C1445" s="21"/>
-      <c r="D1445" s="21"/>
     </row>
     <row r="1446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1446" s="44"/>
       <c r="C1446" s="21"/>
+      <c r="D1446" s="21"/>
     </row>
     <row r="1447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1447" s="44"/>
@@ -59509,8 +59491,10 @@
     </row>
     <row r="1448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1448" s="44"/>
+      <c r="B1448" s="21"/>
       <c r="C1448" s="21"/>
       <c r="D1448" s="21"/>
+      <c r="E1448" s="21"/>
     </row>
     <row r="1449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1449" s="44"/>
@@ -59528,10 +59512,8 @@
     </row>
     <row r="1451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1451" s="44"/>
-      <c r="B1451" s="21"/>
       <c r="C1451" s="21"/>
       <c r="D1451" s="21"/>
-      <c r="E1451" s="21"/>
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1452" s="44"/>
@@ -59542,6 +59524,7 @@
       <c r="A1453" s="44"/>
       <c r="C1453" s="21"/>
       <c r="D1453" s="21"/>
+      <c r="E1453" s="21"/>
     </row>
     <row r="1454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1454" s="44"/>
@@ -59785,6 +59768,7 @@
     </row>
     <row r="1494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1494" s="44"/>
+      <c r="B1494" s="21"/>
       <c r="C1494" s="21"/>
       <c r="D1494" s="21"/>
       <c r="E1494" s="21"/>
@@ -59805,14 +59789,14 @@
     </row>
     <row r="1497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1497" s="44"/>
-      <c r="B1497" s="21"/>
+      <c r="B1497" s="44"/>
       <c r="C1497" s="21"/>
       <c r="D1497" s="21"/>
       <c r="E1497" s="21"/>
     </row>
     <row r="1498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1498" s="44"/>
-      <c r="B1498" s="44"/>
+      <c r="B1498" s="21"/>
       <c r="C1498" s="21"/>
       <c r="D1498" s="21"/>
       <c r="E1498" s="21"/>
@@ -59840,15 +59824,15 @@
     </row>
     <row r="1502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1502" s="44"/>
-      <c r="B1502" s="21"/>
       <c r="C1502" s="21"/>
       <c r="D1502" s="21"/>
-      <c r="E1502" s="21"/>
     </row>
     <row r="1503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1503" s="44"/>
+      <c r="B1503" s="21"/>
       <c r="C1503" s="21"/>
       <c r="D1503" s="21"/>
+      <c r="E1503" s="21"/>
     </row>
     <row r="1504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1504" s="44"/>
@@ -59901,14 +59885,14 @@
     </row>
     <row r="1511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1511" s="44"/>
-      <c r="B1511" s="21"/>
+      <c r="B1511" s="44"/>
       <c r="C1511" s="21"/>
       <c r="D1511" s="21"/>
       <c r="E1511" s="21"/>
     </row>
     <row r="1512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1512" s="44"/>
-      <c r="B1512" s="44"/>
+      <c r="B1512" s="21"/>
       <c r="C1512" s="21"/>
       <c r="D1512" s="21"/>
       <c r="E1512" s="21"/>
@@ -59943,14 +59927,14 @@
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1517" s="44"/>
-      <c r="B1517" s="21"/>
+      <c r="B1517" s="44"/>
       <c r="C1517" s="21"/>
       <c r="D1517" s="21"/>
       <c r="E1517" s="21"/>
     </row>
     <row r="1518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1518" s="44"/>
-      <c r="B1518" s="44"/>
+      <c r="B1518" s="21"/>
       <c r="C1518" s="21"/>
       <c r="D1518" s="21"/>
       <c r="E1518" s="21"/>
@@ -59978,28 +59962,28 @@
     </row>
     <row r="1522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1522" s="44"/>
-      <c r="B1522" s="21"/>
+      <c r="B1522" s="44"/>
       <c r="C1522" s="21"/>
       <c r="D1522" s="21"/>
       <c r="E1522" s="21"/>
     </row>
     <row r="1523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1523" s="44"/>
-      <c r="B1523" s="44"/>
+      <c r="B1523" s="21"/>
       <c r="C1523" s="21"/>
       <c r="D1523" s="21"/>
       <c r="E1523" s="21"/>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1524" s="44"/>
-      <c r="B1524" s="21"/>
+      <c r="B1524" s="44"/>
       <c r="C1524" s="21"/>
       <c r="D1524" s="21"/>
       <c r="E1524" s="21"/>
     </row>
     <row r="1525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1525" s="44"/>
-      <c r="B1525" s="44"/>
+      <c r="B1525" s="21"/>
       <c r="C1525" s="21"/>
       <c r="D1525" s="21"/>
       <c r="E1525" s="21"/>
@@ -60104,19 +60088,17 @@
     </row>
     <row r="1540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1540" s="44"/>
-      <c r="B1540" s="21"/>
       <c r="C1540" s="21"/>
       <c r="D1540" s="21"/>
-      <c r="E1540" s="21"/>
     </row>
     <row r="1541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1541" s="44"/>
       <c r="C1541" s="21"/>
-      <c r="D1541" s="21"/>
     </row>
     <row r="1542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1542" s="44"/>
       <c r="C1542" s="21"/>
+      <c r="D1542" s="21"/>
     </row>
     <row r="1543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1543" s="44"/>
@@ -60125,8 +60107,10 @@
     </row>
     <row r="1544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1544" s="44"/>
+      <c r="B1544" s="21"/>
       <c r="C1544" s="21"/>
       <c r="D1544" s="21"/>
+      <c r="E1544" s="21"/>
     </row>
     <row r="1545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1545" s="44"/>
@@ -60158,14 +60142,14 @@
     </row>
     <row r="1549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1549" s="44"/>
-      <c r="B1549" s="21"/>
+      <c r="B1549" s="44"/>
       <c r="C1549" s="21"/>
       <c r="D1549" s="21"/>
       <c r="E1549" s="21"/>
     </row>
     <row r="1550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1550" s="44"/>
-      <c r="B1550" s="44"/>
+      <c r="B1550" s="21"/>
       <c r="C1550" s="21"/>
       <c r="D1550" s="21"/>
       <c r="E1550" s="21"/>
@@ -60193,14 +60177,14 @@
     </row>
     <row r="1554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1554" s="44"/>
-      <c r="B1554" s="21"/>
+      <c r="B1554" s="44"/>
       <c r="C1554" s="21"/>
       <c r="D1554" s="21"/>
       <c r="E1554" s="21"/>
     </row>
     <row r="1555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1555" s="44"/>
-      <c r="B1555" s="44"/>
+      <c r="B1555" s="21"/>
       <c r="C1555" s="21"/>
       <c r="D1555" s="21"/>
       <c r="E1555" s="21"/>
@@ -60277,14 +60261,14 @@
     </row>
     <row r="1566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1566" s="44"/>
-      <c r="B1566" s="21"/>
+      <c r="B1566" s="44"/>
       <c r="C1566" s="21"/>
       <c r="D1566" s="21"/>
       <c r="E1566" s="21"/>
     </row>
     <row r="1567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1567" s="44"/>
-      <c r="B1567" s="44"/>
+      <c r="B1567" s="21"/>
       <c r="C1567" s="21"/>
       <c r="D1567" s="21"/>
       <c r="E1567" s="21"/>
@@ -60319,14 +60303,14 @@
     </row>
     <row r="1572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1572" s="44"/>
-      <c r="B1572" s="21"/>
+      <c r="B1572" s="44"/>
       <c r="C1572" s="21"/>
       <c r="D1572" s="21"/>
       <c r="E1572" s="21"/>
     </row>
     <row r="1573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1573" s="44"/>
-      <c r="B1573" s="44"/>
+      <c r="B1573" s="21"/>
       <c r="C1573" s="21"/>
       <c r="D1573" s="21"/>
       <c r="E1573" s="21"/>
@@ -60354,17 +60338,15 @@
     </row>
     <row r="1577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1577" s="44"/>
-      <c r="B1577" s="21"/>
+      <c r="B1577" s="44"/>
       <c r="C1577" s="21"/>
       <c r="D1577" s="21"/>
       <c r="E1577" s="21"/>
     </row>
     <row r="1578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1578" s="44"/>
-      <c r="B1578" s="44"/>
       <c r="C1578" s="21"/>
       <c r="D1578" s="21"/>
-      <c r="E1578" s="21"/>
     </row>
     <row r="1579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1579" s="44"/>
@@ -60378,20 +60360,15 @@
     </row>
     <row r="1581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1581" s="44"/>
+      <c r="B1581" s="21"/>
       <c r="C1581" s="21"/>
       <c r="D1581" s="21"/>
-    </row>
-    <row r="1582" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1582" s="44"/>
-      <c r="B1582" s="21"/>
-      <c r="C1582" s="21"/>
-      <c r="D1582" s="21"/>
-      <c r="E1582" s="21"/>
+      <c r="E1581" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I845" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1436">
-    <sortCondition ref="A1:A1436"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1435">
+    <sortCondition ref="A1:A1435"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -63736,8 +63713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
@@ -65274,7 +65251,7 @@
         <v>1719</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>2805</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
